--- a/feature_select/feature_tests.xlsx
+++ b/feature_select/feature_tests.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,7 +630,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>On Dialysis</t>
+          <t>Prior CABG</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -643,33 +643,33 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Prior CABG</t>
+          <t>Hyperlipidemia</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1.539397352293505</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0.2147075303514012</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Hyperlipidemia</t>
+          <t>PAD</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.539397352293505</v>
+        <v>0.2972863886063807</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2147075303514012</v>
+        <v>0.5855886337445986</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Prior MI</t>
+          <t>Prior CVA</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -682,596 +682,598 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PAD</t>
+          <t>Prior Angina</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2972863886063807</v>
+        <v>1.970802897550447</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5855886337445986</v>
+        <v>0.1603626647084065</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Prior CVA</t>
+          <t>Physical_Activity</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
+        <v>8.698961368758162</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>&lt;0.01</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Prior Angina</t>
+          <t>Average_Sleep_Duration</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.970802897550447</v>
+        <v>5.541275981347471</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1603626647084065</v>
+        <v>0.06262203971754214</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Physical_Activity</t>
+          <t>Stress_Home</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.698961368758162</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
-        </is>
+        <v>3.65798557223285</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.3008425266173504</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Average_Sleep_Duration</t>
+          <t>Stress_Work_Related</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5.541275981347471</v>
+        <v>8.668355206434674</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06262203971754214</v>
+        <v>0.03404125704829553</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Stress_Home</t>
+          <t>Stress_General</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3.65798557223285</v>
+        <v>4.788872742492066</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3008425266173504</v>
+        <v>0.1879259858493902</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Stress_Work_Related</t>
+          <t>Tobacco_Use</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.668355206434674</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.03404125704829553</v>
+        <v>47.98478674580767</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>&lt;0.01</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Stress_General</t>
+          <t>Beedi</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.788872742492066</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.1879259858493902</v>
+        <v>32.6689849648201</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>&lt;0.01</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Tobacco_Use</t>
+          <t>Cigarette</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>47.98478674580767</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
-        </is>
+        <v>5.059024283306032</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.02449802660579986</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Beedi</t>
+          <t>Hookah</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.6689849648201</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Cigarette</t>
+          <t>Tobacco Chewing</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5.059024283306032</v>
+        <v>0.4368060456658731</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02449802660579986</v>
+        <v>0.5086680833308559</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Hookah</t>
+          <t xml:space="preserve">Multiple </t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>2.831938922127909</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0.09240673341195649</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Tobacco Chewing</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.4368060456658731</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.5086680833308559</v>
-      </c>
+          <t>Number of Cigarettes Beedi per day</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multiple </t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>2.831938922127909</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.09240673341195649</v>
-      </c>
+          <t>Number of years smoked</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Number of Cigarettes Beedi per day</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
+          <t>Alcohol</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>4.100253169337439</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.2508401093429057</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Number of years smoked</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
+          <t>Gym_Supplements</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5381922819352501</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.4631828704418429</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Alcohol</t>
+          <t>Cannabis</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4.100253169337439</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2508401093429057</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Gym_Supplements</t>
+          <t>Walking</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.5381922819352501</v>
+        <v>0.3329049314527511</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4631828704418429</v>
+        <v>0.8466630614925669</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Cannabis</t>
+          <t>ASPRIN</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1</v>
+        <v>8.749033671628233</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>&lt;0.01</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Cocaine</t>
+          <t>STATIN</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>6.191520826578211</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0.0128363826795191</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Walking</t>
+          <t>P2Y12 Inhibitors</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.3329049314527511</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8466630614925669</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ASPRIN</t>
+          <t>Beta_blocker</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>8.749033671628233</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
-        </is>
+        <v>0.6275470576711925</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.4282564993284859</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>STATIN</t>
+          <t>CalciumChannel</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6.191520826578211</v>
+        <v>0.6801213337250624</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0128363826795191</v>
+        <v>0.4095449464260514</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>P2Y12 Inhibitors</t>
+          <t>ACE ARB</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>0.9024072561746328</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0.3421370563648333</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Beta_blocker</t>
+          <t>Aldosterone Blocking Antagonist</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.6275470576711925</v>
+        <v>0.2750203661656409</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4282564993284859</v>
+        <v>0.59998377718288</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CalciumChannel</t>
+          <t>Anticoagulant</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.6801213337250624</v>
+        <v>0.05225432383535633</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4095449464260514</v>
+        <v>0.8191860066901225</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ACE ARB</t>
+          <t>INSULIN</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.9024072561746328</v>
+        <v>1.519484942763439</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3421370563648333</v>
+        <v>0.2176974533989677</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Aldosterone Blocking Antagonist</t>
+          <t>Oral Anti glycemics</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2750203661656409</v>
+        <v>1.977110555838218</v>
       </c>
       <c r="C46" t="n">
-        <v>0.59998377718288</v>
+        <v>0.9217916497222836</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ARNI</t>
+          <t>Homeopathy</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>0.02521408139364543</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0.8738347809710847</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Anticoagulant</t>
+          <t>Ayurveda</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.05225432383535633</v>
+        <v>0.3063863390166748</v>
       </c>
       <c r="C48" t="n">
-        <v>0.8191860066901225</v>
+        <v>0.5799061844172272</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>INSULIN</t>
+          <t>Symptoms_name</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.519484942763439</v>
+        <v>5.660246757612585</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2176974533989677</v>
+        <v>0.2259986253286266</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Oral Anti glycemics</t>
+          <t>PRECEDING_ACTIVITY</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.977110555838218</v>
+        <v>4.120460277866981</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9217916497222836</v>
+        <v>0.1274246411490926</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Non statin lipid drugs</t>
+          <t>CardiacStatus_Presentation</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>1</v>
+        <v>131.842149346013</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>&lt;0.01</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Homeopathy</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0.02521408139364543</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.8738347809710847</v>
-      </c>
+          <t>Exact Time of Symptom Onset</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Ayurveda</t>
+          <t>Time since symptoms onset to first medical contact</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.3063863390166748</v>
+        <v>5.583627178349474</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5799061844172272</v>
+        <v>0.2324757954505293</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Symptoms_name</t>
+          <t>Mode_of_transport</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>5.660246757612585</v>
+        <v>6.837449679819033</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2259986253286266</v>
+        <v>0.03275417513757838</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PRECEDING_ACTIVITY</t>
+          <t>Type of First Medical Contact</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4.120460277866981</v>
+        <v>0.08839823529958726</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1274246411490926</v>
+        <v>0.7662234297399017</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>CardiacStatus_Presentation</t>
+          <t>Nature of Treatment</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>131.842149346013</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
-        </is>
+        <v>2.949544823387907</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.2288308003335811</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Exact Time of Symptom Onset</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
+          <t>Height</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1.744891299187858</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.08218919358353449</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Time since symptoms onset to first medical contact</t>
+          <t>Weight</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>5.583627178349474</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.2324757954505293</v>
+        <v>2.913267965563889</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>&lt;0.01</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Mode_of_transport</t>
+          <t>Heart_Rate</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>6.837449679819033</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.03275417513757838</v>
+        <v>-3.234362666501038</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>&lt;0.01</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Type of First Medical Contact</t>
+          <t>BP_Systolic</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.08839823529958726</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.7662234297399017</v>
+        <v>6.042188989871409</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>&lt;0.01</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Nature of Treatment</t>
+          <t>BP_Diastolic</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2.949544823387907</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.2288308003335811</v>
+        <v>5.59028242181165</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>&lt;0.01</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Height</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>1.744891299187858</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.08218919358353449</v>
-      </c>
+          <t>Time_since_symptom_onset_to_1st_ECG</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Weight</t>
+          <t>MItype_on_ECG</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2.913267965563889</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
-        </is>
+        <v>0.343546349347515</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.9516408965497388</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Heart_Rate</t>
+          <t>Beta blocker</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-3.234362666501038</v>
+        <v>14.09700642208352</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1282,37 +1284,33 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BP_Systolic</t>
+          <t>THROMBOLYSIS</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>6.042188989871409</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
-        </is>
+        <v>0.3712141776394673</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.5423431800732004</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BP_Diastolic</t>
+          <t>RWMA</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>5.59028242181165</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
-        </is>
+        <v>0.003580054935816004</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.9522881962113109</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Time_since_symptom_onset_to_1st_ECG</t>
+          <t>EJECTION FRACTION(%)</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -1321,406 +1319,304 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MItype_on_ECG</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>0.343546349347515</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0.9516408965497388</v>
-      </c>
+          <t>PRESENCE OF MITRAL REGURGITATION</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ASPIRIN</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>0</v>
-      </c>
-      <c r="C69" t="n">
-        <v>1</v>
-      </c>
+          <t>LV THROMBUS</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>STATIN.1</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>0</v>
-      </c>
-      <c r="C70" t="n">
-        <v>1</v>
-      </c>
+          <t>VSD</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>P2Y12 Inhibitors.1</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>0</v>
-      </c>
-      <c r="C71" t="n">
-        <v>1</v>
-      </c>
+          <t>LV ANEURYSM</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Beta blocker</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>14.09700642208352</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
-        </is>
-      </c>
+          <t>ACUTE_MR</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>THROMBOLYSIS</t>
+          <t>BASELINE SERUM CREATININE</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.3712141776394673</v>
+        <v>-0.7613222658070451</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5423431800732004</v>
+        <v>0.4472145015489534</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>RWMA</t>
+          <t>HAEMOGLOBIN</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.003580054935816004</v>
+        <v>1.243247382274485</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9522881962113109</v>
+        <v>0.2149193863498248</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>EJECTION FRACTION(%)</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
+          <t>HBA1C</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>-0.5634909848037358</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.5751869408184651</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>PRESENCE OF MITRAL REGURGITATION</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
+          <t>Total_cholesterol</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.3677038928963029</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.7134078712283751</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>LV THROMBUS</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
+          <t>LDL</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.7105450493602388</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.4780315764987272</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>VSD</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr"/>
+          <t>HDL</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.03396153116542273</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.9729337806180898</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>LV ANEURYSM</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
+          <t>Triglycerides</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.3050549226893559</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.7605726939516165</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ACUTE_MR</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
+          <t>APO B(g/l)</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1.698674995876728</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.09234016677841181</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BASELINE SERUM CREATININE</t>
+          <t>Liporotein A</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-0.7613222658070451</v>
+        <v>-0.1906920661366872</v>
       </c>
       <c r="C81" t="n">
-        <v>0.4472145015489534</v>
+        <v>0.8491421101580472</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>HAEMOGLOBIN</t>
+          <t>Trop_T</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1.243247382274485</v>
+        <v>0.03869922904611143</v>
       </c>
       <c r="C82" t="n">
-        <v>0.2149193863498248</v>
+        <v>0.8440457220124487</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>HBA1C</t>
+          <t>Coronary_angiography</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-0.5634909848037358</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0.5751869408184651</v>
+        <v>20.69094370935066</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>&lt;0.01</t>
+        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Total_cholesterol</t>
+          <t>Age 65-74/&gt;75</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.3677038928963029</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0.7134078712283751</v>
+        <v>10.30475957431556</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>&lt;0.01</t>
+        </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>LDL</t>
+          <t>Systolic BP&lt;100</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.7105450493602388</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0.4780315764987272</v>
+        <v>73.06738965449915</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>&lt;0.01</t>
+        </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>HDL</t>
+          <t>Heart Rate&gt;100</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.03396153116542273</v>
-      </c>
-      <c r="C86" t="n">
-        <v>0.9729337806180898</v>
+        <v>9.22928552801441</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>&lt;0.01</t>
+        </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Triglycerides</t>
+          <t>KILLIP II-IV</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.3050549226893559</v>
-      </c>
-      <c r="C87" t="n">
-        <v>0.7605726939516165</v>
+        <v>63.73280259104504</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>&lt;0.01</t>
+        </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>APO B(g/l)</t>
+          <t>Anterior STE or LBBB</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1.698674995876728</v>
+        <v>0.03188344315498007</v>
       </c>
       <c r="C88" t="n">
-        <v>0.09234016677841181</v>
+        <v>0.8582837117260116</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Liporotein A</t>
+          <t>H/O Diabetes, HTN or Angina</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-0.1906920661366872</v>
-      </c>
-      <c r="C89" t="n">
-        <v>0.8491421101580472</v>
+        <v>42.36740648436264</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>&lt;0.01</t>
+        </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Trop_T</t>
+          <t>Weight &lt; 67 Kgs</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.03869922904611143</v>
+        <v>4.808093441574595</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8440457220124487</v>
+        <v>0.02832636798905187</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Coronary_angiography</t>
+          <t>Time to Treatment &gt;4 Hours</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>20.69094370935066</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Age 65-74/&gt;75</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>10.30475957431556</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Systolic BP&lt;100</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>73.06738965449915</v>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Heart Rate&gt;100</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>9.22928552801441</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>KILLIP II-IV</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>63.73280259104504</v>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Anterior STE or LBBB</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>0.03188344315498007</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0.8582837117260116</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>H/O Diabetes, HTN or Angina</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>42.36740648436264</v>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Weight &lt; 67 Kgs</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>4.808093441574595</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0.02832636798905187</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Time to Treatment &gt;4 Hours</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
         <v>5.145881977272849</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C91" t="n">
         <v>0.02330157078029437</v>
       </c>
     </row>

--- a/feature_select/feature_tests.xlsx
+++ b/feature_select/feature_tests.xlsx
@@ -1250,8 +1250,12 @@
           <t>Time_since_symptom_onset_to_1st_ECG</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
+      <c r="B62" t="n">
+        <v>28.100467478619</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.1070423468484593</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1313,8 +1317,14 @@
           <t>EJECTION FRACTION(%)</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
+      <c r="B67" t="n">
+        <v>43.9521120369062</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>&lt;0.01</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1322,8 +1332,14 @@
           <t>PRESENCE OF MITRAL REGURGITATION</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
+      <c r="B68" t="n">
+        <v>287.893173379495</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>&lt;0.01</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1331,8 +1347,14 @@
           <t>LV THROMBUS</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
+      <c r="B69" t="n">
+        <v>38.27184073954347</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>&lt;0.01</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1340,8 +1362,14 @@
           <t>VSD</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
+      <c r="B70" t="n">
+        <v>49.29718448025415</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>&lt;0.01</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1349,8 +1377,14 @@
           <t>LV ANEURYSM</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
+      <c r="B71" t="n">
+        <v>63.30150418350568</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>&lt;0.01</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1358,8 +1392,14 @@
           <t>ACUTE_MR</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
+      <c r="B72" t="n">
+        <v>72.80180783603235</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>&lt;0.01</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">

--- a/feature_select/feature_tests.xlsx
+++ b/feature_select/feature_tests.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>p value</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Significant</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -459,9 +464,12 @@
       <c r="B2" t="n">
         <v>-4.14876406492647</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
+      <c r="C2" t="n">
+        <v>4.541319311981345e-05</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Significant</t>
         </is>
       </c>
     </row>
@@ -474,9 +482,12 @@
       <c r="B3" t="n">
         <v>11.53454624583081</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
+      <c r="C3" t="n">
+        <v>0.0006831474935969359</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Significant</t>
         </is>
       </c>
     </row>
@@ -492,1173 +503,1355 @@
       <c r="C4" t="n">
         <v>0.9993109055108372</v>
       </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>father</t>
+          <t>Admission Time</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4240332651805472</v>
+        <v>0.5220809801768388</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5149313535052109</v>
-      </c>
+        <v>0.6020760192082126</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>mother</t>
+          <t>father</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.437007575527429</v>
+        <v>0.4240332651805472</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1185020950231579</v>
-      </c>
+        <v>0.5149313535052109</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>firstdeg</t>
+          <t>mother</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0005331247262204686</v>
+        <v>2.437007575527429</v>
       </c>
       <c r="C7" t="n">
-        <v>0.98157888614725</v>
-      </c>
+        <v>0.1185020950231579</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>seconddeg</t>
+          <t>firstdeg</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02521408139364543</v>
+        <v>0.0005331247262204686</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8738347809710847</v>
-      </c>
+        <v>0.98157888614725</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Atrial fib flutter</t>
+          <t>seconddeg</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.02521408139364543</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
-      </c>
+        <v>0.8738347809710847</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Heart Failure</t>
+          <t>Atrial fib flutter</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.313333360732582</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2517920180003121</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PriorPCI</t>
+          <t>Heart Failure</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0101333168749623</v>
+        <v>1.313333360732582</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9198168904122365</v>
-      </c>
+        <v>0.2517920180003121</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Diabetes Mellitus</t>
+          <t>PriorPCI</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>37.88543291702035</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
-        </is>
-      </c>
+        <v>0.0101333168749623</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9198168904122365</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Cancer</t>
+          <t>Diabetes Mellitus</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.313333360732582</v>
+        <v>37.88543291702035</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2517920180003121</v>
+        <v>7.502333406120172e-10</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Significant</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hypertension</t>
+          <t>Cancer</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>14.9982716274579</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
-        </is>
-      </c>
+        <v>1.313333360732582</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2517920180003121</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Prior CABG</t>
+          <t>Hypertension</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>14.9982716274579</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0.0001076096896880798</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Significant</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Hyperlipidemia</t>
+          <t>Prior CABG</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.539397352293505</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2147075303514012</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PAD</t>
+          <t>Hyperlipidemia</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2972863886063807</v>
+        <v>1.539397352293505</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5855886337445986</v>
-      </c>
+        <v>0.2147075303514012</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Prior CVA</t>
+          <t>PAD</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.2972863886063807</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
-      </c>
+        <v>0.5855886337445986</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Prior Angina</t>
+          <t>Prior CVA</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.970802897550447</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1603626647084065</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Physical_Activity</t>
+          <t>Prior Angina</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.698961368758162</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
-        </is>
-      </c>
+        <v>1.970802897550447</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1603626647084065</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Average_Sleep_Duration</t>
+          <t>Physical_Activity</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.541275981347471</v>
+        <v>8.698961368758162</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06262203971754214</v>
+        <v>0.003183914166166145</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Significant</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Stress_Home</t>
+          <t>Average_Sleep_Duration</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.65798557223285</v>
+        <v>5.541275981347471</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3008425266173504</v>
-      </c>
+        <v>0.06262203971754214</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Stress_Work_Related</t>
+          <t>Stress_Home</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8.668355206434674</v>
+        <v>3.65798557223285</v>
       </c>
       <c r="C23" t="n">
-        <v>0.03404125704829553</v>
-      </c>
+        <v>0.3008425266173504</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Stress_General</t>
+          <t>Stress_Work_Related</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.788872742492066</v>
+        <v>8.668355206434674</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1879259858493902</v>
-      </c>
+        <v>0.03404125704829553</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Tobacco_Use</t>
+          <t>Stress_General</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.98478674580767</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
-        </is>
-      </c>
+        <v>4.788872742492066</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1879259858493902</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Beedi</t>
+          <t>Tobacco_Use</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>32.6689849648201</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
+        <v>47.98478674580767</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.14541417487013e-10</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Significant</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Cigarette</t>
+          <t>Beedi</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5.059024283306032</v>
+        <v>32.6689849648201</v>
       </c>
       <c r="C27" t="n">
-        <v>0.02449802660579986</v>
+        <v>1.092669143339376e-08</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Significant</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Hookah</t>
+          <t>Cigarette</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>5.059024283306032</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
-      </c>
+        <v>0.02449802660579986</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Tobacco Chewing</t>
+          <t>Hookah</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.4368060456658731</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5086680833308559</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multiple </t>
+          <t>Tobacco Chewing</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.831938922127909</v>
+        <v>0.4368060456658731</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09240673341195649</v>
-      </c>
+        <v>0.5086680833308559</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Number of Cigarettes Beedi per day</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
+          <t xml:space="preserve">Multiple </t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2.831938922127909</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.09240673341195649</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Number of years smoked</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
+          <t>Number of Cigarettes Beedi per day</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-5.590892283513144</v>
+      </c>
+      <c r="C32" t="n">
+        <v>5.98009298650165e-08</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Significant</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Alcohol</t>
+          <t>Number of years smoked</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.100253169337439</v>
+        <v>-3.733747506234556</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2508401093429057</v>
+        <v>0.0002302766207072653</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Significant</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Gym_Supplements</t>
+          <t>Alcohol</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.5381922819352501</v>
+        <v>4.100253169337439</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4631828704418429</v>
-      </c>
+        <v>0.2508401093429057</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Cannabis</t>
+          <t>Gym_Supplements</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>0.5381922819352501</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
-      </c>
+        <v>0.4631828704418429</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Walking</t>
+          <t>Cannabis</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3329049314527511</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8466630614925669</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ASPRIN</t>
+          <t>Walking</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>8.749033671628233</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
-        </is>
-      </c>
+        <v>0.3329049314527511</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.8466630614925669</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>STATIN</t>
+          <t>ASPRIN</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.191520826578211</v>
+        <v>8.749033671628233</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0128363826795191</v>
+        <v>0.00309766155277315</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Significant</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>P2Y12 Inhibitors</t>
+          <t>STATIN</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>6.191520826578211</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
-      </c>
+        <v>0.0128363826795191</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Beta_blocker</t>
+          <t>P2Y12 Inhibitors</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.6275470576711925</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4282564993284859</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CalciumChannel</t>
+          <t>Beta_blocker</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.6801213337250624</v>
+        <v>0.6275470576711925</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4095449464260514</v>
-      </c>
+        <v>0.4282564993284859</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ACE ARB</t>
+          <t>CalciumChannel</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.9024072561746328</v>
+        <v>0.6801213337250624</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3421370563648333</v>
-      </c>
+        <v>0.4095449464260514</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Aldosterone Blocking Antagonist</t>
+          <t>ACE ARB</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2750203661656409</v>
+        <v>0.9024072561746328</v>
       </c>
       <c r="C43" t="n">
-        <v>0.59998377718288</v>
-      </c>
+        <v>0.3421370563648333</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Anticoagulant</t>
+          <t>Aldosterone Blocking Antagonist</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.05225432383535633</v>
+        <v>0.2750203661656409</v>
       </c>
       <c r="C44" t="n">
-        <v>0.8191860066901225</v>
-      </c>
+        <v>0.59998377718288</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>INSULIN</t>
+          <t>Anticoagulant</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1.519484942763439</v>
+        <v>0.05225432383535633</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2176974533989677</v>
-      </c>
+        <v>0.8191860066901225</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Oral Anti glycemics</t>
+          <t>INSULIN</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.977110555838218</v>
+        <v>1.519484942763439</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9217916497222836</v>
-      </c>
+        <v>0.2176974533989677</v>
+      </c>
+      <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Homeopathy</t>
+          <t>Oral Anti glycemics</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.02521408139364543</v>
+        <v>1.977110555838218</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8738347809710847</v>
-      </c>
+        <v>0.9217916497222836</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Ayurveda</t>
+          <t>Homeopathy</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.3063863390166748</v>
+        <v>0.02521408139364543</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5799061844172272</v>
-      </c>
+        <v>0.8738347809710847</v>
+      </c>
+      <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Symptoms_name</t>
+          <t>Ayurveda</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>5.660246757612585</v>
+        <v>0.3063863390166748</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2259986253286266</v>
-      </c>
+        <v>0.5799061844172272</v>
+      </c>
+      <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PRECEDING_ACTIVITY</t>
+          <t>Symptoms_name</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4.120460277866981</v>
+        <v>5.660246757612585</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1274246411490926</v>
-      </c>
+        <v>0.2259986253286266</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CardiacStatus_Presentation</t>
+          <t>PRECEDING_ACTIVITY</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>131.842149346013</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
-        </is>
-      </c>
+        <v>4.120460277866981</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.1274246411490926</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Exact Time of Symptom Onset</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
+          <t>CardiacStatus_Presentation</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>131.842149346013</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2.348772905298489e-29</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Significant</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Time since symptoms onset to first medical contact</t>
+          <t>Exact Time of Symptom Onset</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>5.583627178349474</v>
+        <v>-0.3236946377134959</v>
       </c>
       <c r="C53" t="n">
-        <v>0.2324757954505293</v>
-      </c>
+        <v>0.7464310073287435</v>
+      </c>
+      <c r="D53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Mode_of_transport</t>
+          <t>Time since symptoms onset to first medical contact</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>6.837449679819033</v>
+        <v>5.583627178349474</v>
       </c>
       <c r="C54" t="n">
-        <v>0.03275417513757838</v>
-      </c>
+        <v>0.2324757954505293</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Type of First Medical Contact</t>
+          <t>Mode_of_transport</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.08839823529958726</v>
+        <v>6.837449679819033</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7662234297399017</v>
-      </c>
+        <v>0.03275417513757838</v>
+      </c>
+      <c r="D55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Nature of Treatment</t>
+          <t>Type of First Medical Contact</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2.949544823387907</v>
+        <v>0.08839823529958726</v>
       </c>
       <c r="C56" t="n">
-        <v>0.2288308003335811</v>
-      </c>
+        <v>0.7662234297399017</v>
+      </c>
+      <c r="D56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Height</t>
+          <t>Nature of Treatment</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1.744891299187858</v>
+        <v>2.949544823387907</v>
       </c>
       <c r="C57" t="n">
-        <v>0.08218919358353449</v>
-      </c>
+        <v>0.2288308003335811</v>
+      </c>
+      <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Weight</t>
+          <t>Height</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2.913267965563889</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
-        </is>
-      </c>
+        <v>1.744891299187858</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.08218919358353449</v>
+      </c>
+      <c r="D58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Heart_Rate</t>
+          <t>Weight</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-3.234362666501038</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
+        <v>2.913267965563889</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.003869249071152921</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Significant</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BP_Systolic</t>
+          <t>Heart_Rate</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>6.042188989871409</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
+        <v>-3.234362666501038</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.001383804588752184</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Significant</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BP_Diastolic</t>
+          <t>BP_Systolic</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>5.59028242181165</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
+        <v>6.042188989871409</v>
+      </c>
+      <c r="C61" t="n">
+        <v>5.73848486163851e-09</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Significant</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Time_since_symptom_onset_to_1st_ECG</t>
+          <t>BP_Diastolic</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>28.100467478619</v>
+        <v>5.59028242181165</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1070423468484593</v>
+        <v>6.244306992381806e-08</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Significant</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>MItype_on_ECG</t>
+          <t>Time_since_symptom_onset_to_1st_ECG</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.343546349347515</v>
+        <v>28.100467478619</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9516408965497388</v>
-      </c>
+        <v>0.1070423468484593</v>
+      </c>
+      <c r="D63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Beta blocker</t>
+          <t>MItype_on_ECG</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>14.09700642208352</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
-        </is>
-      </c>
+        <v>0.343546349347515</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.9516408965497388</v>
+      </c>
+      <c r="D64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>THROMBOLYSIS</t>
+          <t>Beta blocker</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.3712141776394673</v>
+        <v>14.09700642208352</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5423431800732004</v>
+        <v>0.006991801200777611</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Significant</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>RWMA</t>
+          <t>THROMBOLYSIS</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.003580054935816004</v>
+        <v>0.3712141776394673</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9522881962113109</v>
-      </c>
+        <v>0.5423431800732004</v>
+      </c>
+      <c r="D66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>EJECTION FRACTION(%)</t>
+          <t>RWMA</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>43.9521120369062</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
-        </is>
-      </c>
+        <v>0.003580054935816004</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.9522881962113109</v>
+      </c>
+      <c r="D67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PRESENCE OF MITRAL REGURGITATION</t>
+          <t>EJECTION FRACTION(%)</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>287.893173379495</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
+        <v>43.9521120369062</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2.368652670345275e-08</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Significant</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>LV THROMBUS</t>
+          <t>PRESENCE OF MITRAL REGURGITATION</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>38.27184073954347</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
+        <v>287.893173379495</v>
+      </c>
+      <c r="C69" t="n">
+        <v>4.148090291191982e-62</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Significant</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>VSD</t>
+          <t>LV THROMBUS</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>49.29718448025415</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
+        <v>38.27184073954347</v>
+      </c>
+      <c r="C70" t="n">
+        <v>6.154437157779015e-10</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Significant</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>LV ANEURYSM</t>
+          <t>VSD</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>63.30150418350568</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
+        <v>49.29718448025415</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2.199779925357968e-12</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Significant</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ACUTE_MR</t>
+          <t>LV ANEURYSM</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>72.80180783603235</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
+        <v>63.30150418350568</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.773688145390625e-15</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Significant</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BASELINE SERUM CREATININE</t>
+          <t>ACUTE_MR</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.7613222658070451</v>
+        <v>72.80180783603235</v>
       </c>
       <c r="C73" t="n">
-        <v>0.4472145015489534</v>
+        <v>1.433454856537554e-17</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Significant</t>
+        </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>HAEMOGLOBIN</t>
+          <t>BASELINE SERUM CREATININE</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1.243247382274485</v>
+        <v>-0.7613222658070451</v>
       </c>
       <c r="C74" t="n">
-        <v>0.2149193863498248</v>
-      </c>
+        <v>0.4472145015489534</v>
+      </c>
+      <c r="D74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>HBA1C</t>
+          <t>HAEMOGLOBIN</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-0.5634909848037358</v>
+        <v>1.243247382274485</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5751869408184651</v>
-      </c>
+        <v>0.2149193863498248</v>
+      </c>
+      <c r="D75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Total_cholesterol</t>
+          <t>HBA1C</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.3677038928963029</v>
+        <v>4.759889789535324</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7134078712283751</v>
+        <v>3.124698435258619e-06</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Significant</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>LDL</t>
+          <t>Total_cholesterol</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.7105450493602388</v>
+        <v>0.3677038928963029</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4780315764987272</v>
-      </c>
+        <v>0.7134078712283751</v>
+      </c>
+      <c r="D77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>HDL</t>
+          <t>LDL</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.03396153116542273</v>
+        <v>0.7105450493602388</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9729337806180898</v>
-      </c>
+        <v>0.4780315764987272</v>
+      </c>
+      <c r="D78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Triglycerides</t>
+          <t>HDL</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.3050549226893559</v>
+        <v>0.03396153116542273</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7605726939516165</v>
-      </c>
+        <v>0.9729337806180898</v>
+      </c>
+      <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>APO B(g/l)</t>
+          <t>Triglycerides</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1.698674995876728</v>
+        <v>0.3050549226893559</v>
       </c>
       <c r="C80" t="n">
-        <v>0.09234016677841181</v>
-      </c>
+        <v>0.7605726939516165</v>
+      </c>
+      <c r="D80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Liporotein A</t>
+          <t>APO B(g/l)</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-0.1906920661366872</v>
+        <v>5.243420237720859</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8491421101580472</v>
+        <v>3.180989585011831e-07</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Significant</t>
+        </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Trop_T</t>
+          <t>Liporotein A</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.03869922904611143</v>
+        <v>3.446608394388543</v>
       </c>
       <c r="C82" t="n">
-        <v>0.8440457220124487</v>
+        <v>0.000656396260328045</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Significant</t>
+        </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Coronary_angiography</t>
+          <t>Trop_T</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>20.69094370935066</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
-        </is>
-      </c>
+        <v>0.03869922904611143</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.8440457220124487</v>
+      </c>
+      <c r="D83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Age 65-74/&gt;75</t>
+          <t>Coronary_angiography</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>10.30475957431556</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
+        <v>22.11050365478213</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1.580393137956131e-05</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Significant</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Systolic BP&lt;100</t>
+          <t>Age 65-74/&gt;75</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>73.06738965449915</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
+        <v>10.30475957431556</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.00578561978706754</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Significant</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Heart Rate&gt;100</t>
+          <t>Systolic BP&lt;100</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>9.22928552801441</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
+        <v>73.06738965449915</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1.252977513975094e-17</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Significant</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>KILLIP II-IV</t>
+          <t>Heart Rate&gt;100</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>63.73280259104504</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
+        <v>9.22928552801441</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.002381745678264956</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Significant</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Anterior STE or LBBB</t>
+          <t>KILLIP II-IV</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.03188344315498007</v>
+        <v>63.73280259104504</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8582837117260116</v>
+        <v>1.424920570267967e-15</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Significant</t>
+        </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>H/O Diabetes, HTN or Angina</t>
+          <t>Anterior STE or LBBB</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>42.36740648436264</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>&lt;0.01</t>
-        </is>
-      </c>
+        <v>0.03188344315498007</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.8582837117260116</v>
+      </c>
+      <c r="D89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Weight &lt; 67 Kgs</t>
+          <t>H/O Diabetes, HTN or Angina</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>4.808093441574595</v>
+        <v>42.36740648436264</v>
       </c>
       <c r="C90" t="n">
-        <v>0.02832636798905187</v>
+        <v>7.564013375814875e-11</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Significant</t>
+        </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
+          <t>Weight &lt; 67 Kgs</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>4.808093441574595</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.02832636798905187</v>
+      </c>
+      <c r="D91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
           <t>Time to Treatment &gt;4 Hours</t>
         </is>
       </c>
-      <c r="B91" t="n">
+      <c r="B92" t="n">
         <v>5.145881977272849</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C92" t="n">
         <v>0.02330157078029437</v>
       </c>
+      <c r="D92" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/feature_select/feature_tests.xlsx
+++ b/feature_select/feature_tests.xlsx
@@ -469,508 +469,608 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Significant</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Number of Cigarettes Beedi per day</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.53454624583081</v>
+        <v>-5.590892283513144</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0006831474935969359</v>
+        <v>5.98009298650165e-08</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Significant</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Presentation</t>
+          <t>Number of years smoked</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.458947297404109e-07</v>
+        <v>-3.733747506234556</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9993109055108372</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>0.0002302766207072653</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Admission Time</t>
+          <t>Height</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5220809801768388</v>
+        <v>1.744891299187858</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6020760192082126</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>0.08218919358353449</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>father</t>
+          <t>Weight</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4240332651805472</v>
+        <v>2.913267965563889</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5149313535052109</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>0.003869249071152921</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>mother</t>
+          <t>Heart_Rate</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.437007575527429</v>
+        <v>-3.234362666501038</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1185020950231579</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>0.001383804588752184</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>firstdeg</t>
+          <t>BP_Systolic</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0005331247262204686</v>
+        <v>6.042188989871409</v>
       </c>
       <c r="C8" t="n">
-        <v>0.98157888614725</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>5.73848486163851e-09</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>seconddeg</t>
+          <t>BP_Diastolic</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02521408139364543</v>
+        <v>5.59028242181165</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8738347809710847</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>6.244306992381806e-08</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Atrial fib flutter</t>
+          <t>Exact Time of Symptom Onset</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-0.3236946377134959</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>0.7464310073287435</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Heart Failure</t>
+          <t>BASELINE SERUM CREATININE</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.313333360732582</v>
+        <v>-0.7613222658070451</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2517920180003121</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>0.4472145015489534</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PriorPCI</t>
+          <t>HAEMOGLOBIN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0101333168749623</v>
+        <v>1.243247382274485</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9198168904122365</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>0.2149193863498248</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Diabetes Mellitus</t>
+          <t>HBA1C</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.88543291702035</v>
+        <v>4.759889789535324</v>
       </c>
       <c r="C13" t="n">
-        <v>7.502333406120172e-10</v>
+        <v>3.124698435258619e-06</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Significant</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Cancer</t>
+          <t>Total_cholesterol</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.313333360732582</v>
+        <v>0.3677038928963029</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2517920180003121</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
+        <v>0.7134078712283751</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Hypertension</t>
+          <t>LDL</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>14.9982716274579</v>
+        <v>0.7105450493602388</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001076096896880798</v>
+        <v>0.4780315764987272</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Significant</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Prior CABG</t>
+          <t>HDL</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.03396153116542273</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
+        <v>0.9729337806180898</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Hyperlipidemia</t>
+          <t>Triglycerides</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.539397352293505</v>
+        <v>0.3050549226893559</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2147075303514012</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
+        <v>0.7605726939516165</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PAD</t>
+          <t>APO B(g/l)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2972863886063807</v>
+        <v>5.243420237720859</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5855886337445986</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
+        <v>3.180989585011831e-07</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Prior CVA</t>
+          <t>Liporotein A</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>3.446608394388543</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>0.000656396260328045</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Prior Angina</t>
+          <t>Admission Time</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.970802897550447</v>
+        <v>0.5220809801768388</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1603626647084065</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+        <v>0.6020760192082126</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Physical_Activity</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>8.698961368758162</v>
+        <v>11.53454624583081</v>
       </c>
       <c r="C21" t="n">
-        <v>0.003183914166166145</v>
+        <v>0.0006831474935969359</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Significant</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Average_Sleep_Duration</t>
+          <t>Presentation</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.541275981347471</v>
+        <v>7.458947297404109e-07</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06262203971754214</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>0.9993109055108372</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Stress_Home</t>
+          <t>father</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.65798557223285</v>
+        <v>0.4240332651805472</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3008425266173504</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
+        <v>0.5149313535052109</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Stress_Work_Related</t>
+          <t>mother</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8.668355206434674</v>
+        <v>2.437007575527429</v>
       </c>
       <c r="C24" t="n">
-        <v>0.03404125704829553</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
+        <v>0.1185020950231579</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Stress_General</t>
+          <t>firstdeg</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.788872742492066</v>
+        <v>0.0005331247262204686</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1879259858493902</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
+        <v>0.98157888614725</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Tobacco_Use</t>
+          <t>seconddeg</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47.98478674580767</v>
+        <v>0.02521408139364543</v>
       </c>
       <c r="C26" t="n">
-        <v>2.14541417487013e-10</v>
+        <v>0.8738347809710847</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Significant</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Beedi</t>
+          <t>Atrial fib flutter</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>32.6689849648201</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1.092669143339376e-08</v>
+        <v>1</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Significant</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Cigarette</t>
+          <t>Heart Failure</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5.059024283306032</v>
+        <v>1.313333360732582</v>
       </c>
       <c r="C28" t="n">
-        <v>0.02449802660579986</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
+        <v>0.2517920180003121</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Hookah</t>
+          <t>PriorPCI</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>0.0101333168749623</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
+        <v>0.9198168904122365</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Tobacco Chewing</t>
+          <t>Diabetes Mellitus</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.4368060456658731</v>
+        <v>37.88543291702035</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5086680833308559</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
+        <v>7.502333406120172e-10</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multiple </t>
+          <t>Cancer</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.831938922127909</v>
+        <v>1.313333360732582</v>
       </c>
       <c r="C31" t="n">
-        <v>0.09240673341195649</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
+        <v>0.2517920180003121</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Number of Cigarettes Beedi per day</t>
+          <t>Hypertension</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-5.590892283513144</v>
+        <v>14.9982716274579</v>
       </c>
       <c r="C32" t="n">
-        <v>5.98009298650165e-08</v>
+        <v>0.0001076096896880798</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Significant</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Number of years smoked</t>
+          <t>Prior CABG</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-3.733747506234556</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0002302766207072653</v>
+        <v>1</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Significant</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Alcohol</t>
+          <t>Hyperlipidemia</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.100253169337439</v>
+        <v>1.539397352293505</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2508401093429057</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
+        <v>0.2147075303514012</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Gym_Supplements</t>
+          <t>PAD</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.5381922819352501</v>
+        <v>0.2972863886063807</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4631828704418429</v>
-      </c>
-      <c r="D35" t="inlineStr"/>
+        <v>0.5855886337445986</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Cannabis</t>
+          <t>Prior CVA</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -979,879 +1079,1019 @@
       <c r="C36" t="n">
         <v>1</v>
       </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Walking</t>
+          <t>Prior Angina</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3329049314527511</v>
+        <v>1.970802897550447</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8466630614925669</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
+        <v>0.1603626647084065</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ASPRIN</t>
+          <t>Physical_Activity</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>8.749033671628233</v>
+        <v>8.698961368758162</v>
       </c>
       <c r="C38" t="n">
-        <v>0.00309766155277315</v>
+        <v>0.003183914166166145</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Significant</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>STATIN</t>
+          <t>Average_Sleep_Duration</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>6.191520826578211</v>
+        <v>5.541275981347471</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0128363826795191</v>
-      </c>
-      <c r="D39" t="inlineStr"/>
+        <v>0.06262203971754214</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>P2Y12 Inhibitors</t>
+          <t>Stress_Home</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>3.65798557223285</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" t="inlineStr"/>
+        <v>0.3008425266173504</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Beta_blocker</t>
+          <t>Stress_Work_Related</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.6275470576711925</v>
+        <v>8.668355206434674</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4282564993284859</v>
-      </c>
-      <c r="D41" t="inlineStr"/>
+        <v>0.03404125704829553</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CalciumChannel</t>
+          <t>Stress_General</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.6801213337250624</v>
+        <v>4.788872742492066</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4095449464260514</v>
-      </c>
-      <c r="D42" t="inlineStr"/>
+        <v>0.1879259858493902</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ACE ARB</t>
+          <t>Tobacco_Use</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.9024072561746328</v>
+        <v>47.98478674580767</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3421370563648333</v>
-      </c>
-      <c r="D43" t="inlineStr"/>
+        <v>2.14541417487013e-10</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Aldosterone Blocking Antagonist</t>
+          <t>Beedi</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2750203661656409</v>
+        <v>32.6689849648201</v>
       </c>
       <c r="C44" t="n">
-        <v>0.59998377718288</v>
-      </c>
-      <c r="D44" t="inlineStr"/>
+        <v>1.092669143339376e-08</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Anticoagulant</t>
+          <t>Cigarette</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.05225432383535633</v>
+        <v>5.059024283306032</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8191860066901225</v>
-      </c>
-      <c r="D45" t="inlineStr"/>
+        <v>0.02449802660579986</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>INSULIN</t>
+          <t>Hookah</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.519484942763439</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.2176974533989677</v>
-      </c>
-      <c r="D46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Oral Anti glycemics</t>
+          <t>Tobacco Chewing</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1.977110555838218</v>
+        <v>0.4368060456658731</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9217916497222836</v>
-      </c>
-      <c r="D47" t="inlineStr"/>
+        <v>0.5086680833308559</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Homeopathy</t>
+          <t xml:space="preserve">Multiple </t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.02521408139364543</v>
+        <v>2.831938922127909</v>
       </c>
       <c r="C48" t="n">
-        <v>0.8738347809710847</v>
-      </c>
-      <c r="D48" t="inlineStr"/>
+        <v>0.09240673341195649</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Ayurveda</t>
+          <t>Alcohol</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.3063863390166748</v>
+        <v>4.100253169337439</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5799061844172272</v>
-      </c>
-      <c r="D49" t="inlineStr"/>
+        <v>0.2508401093429057</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Symptoms_name</t>
+          <t>Gym_Supplements</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>5.660246757612585</v>
+        <v>0.5381922819352501</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2259986253286266</v>
-      </c>
-      <c r="D50" t="inlineStr"/>
+        <v>0.4631828704418429</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PRECEDING_ACTIVITY</t>
+          <t>Cannabis</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4.120460277866981</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1274246411490926</v>
-      </c>
-      <c r="D51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CardiacStatus_Presentation</t>
+          <t>Walking</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>131.842149346013</v>
+        <v>0.3329049314527511</v>
       </c>
       <c r="C52" t="n">
-        <v>2.348772905298489e-29</v>
+        <v>0.8466630614925669</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Significant</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Exact Time of Symptom Onset</t>
+          <t>ASPRIN</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.3236946377134959</v>
+        <v>8.749033671628233</v>
       </c>
       <c r="C53" t="n">
-        <v>0.7464310073287435</v>
-      </c>
-      <c r="D53" t="inlineStr"/>
+        <v>0.00309766155277315</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Time since symptoms onset to first medical contact</t>
+          <t>STATIN</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>5.583627178349474</v>
+        <v>6.191520826578211</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2324757954505293</v>
-      </c>
-      <c r="D54" t="inlineStr"/>
+        <v>0.0128363826795191</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Mode_of_transport</t>
+          <t>P2Y12 Inhibitors</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>6.837449679819033</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.03275417513757838</v>
-      </c>
-      <c r="D55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Type of First Medical Contact</t>
+          <t>Beta_blocker</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.08839823529958726</v>
+        <v>0.6275470576711925</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7662234297399017</v>
-      </c>
-      <c r="D56" t="inlineStr"/>
+        <v>0.4282564993284859</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Nature of Treatment</t>
+          <t>CalciumChannel</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2.949544823387907</v>
+        <v>0.6801213337250624</v>
       </c>
       <c r="C57" t="n">
-        <v>0.2288308003335811</v>
-      </c>
-      <c r="D57" t="inlineStr"/>
+        <v>0.4095449464260514</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Height</t>
+          <t>ACE ARB</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1.744891299187858</v>
+        <v>0.9024072561746328</v>
       </c>
       <c r="C58" t="n">
-        <v>0.08218919358353449</v>
-      </c>
-      <c r="D58" t="inlineStr"/>
+        <v>0.3421370563648333</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Weight</t>
+          <t>Aldosterone Blocking Antagonist</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2.913267965563889</v>
+        <v>0.2750203661656409</v>
       </c>
       <c r="C59" t="n">
-        <v>0.003869249071152921</v>
+        <v>0.59998377718288</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Significant</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Heart_Rate</t>
+          <t>Anticoagulant</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-3.234362666501038</v>
+        <v>0.05225432383535633</v>
       </c>
       <c r="C60" t="n">
-        <v>0.001383804588752184</v>
+        <v>0.8191860066901225</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Significant</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BP_Systolic</t>
+          <t>INSULIN</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>6.042188989871409</v>
+        <v>1.519484942763439</v>
       </c>
       <c r="C61" t="n">
-        <v>5.73848486163851e-09</v>
+        <v>0.2176974533989677</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Significant</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BP_Diastolic</t>
+          <t>Oral Anti glycemics</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>5.59028242181165</v>
+        <v>1.977110555838218</v>
       </c>
       <c r="C62" t="n">
-        <v>6.244306992381806e-08</v>
+        <v>0.9217916497222836</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Significant</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Time_since_symptom_onset_to_1st_ECG</t>
+          <t>Homeopathy</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>28.100467478619</v>
+        <v>0.02521408139364543</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1070423468484593</v>
-      </c>
-      <c r="D63" t="inlineStr"/>
+        <v>0.8738347809710847</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MItype_on_ECG</t>
+          <t>Ayurveda</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.343546349347515</v>
+        <v>0.3063863390166748</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9516408965497388</v>
-      </c>
-      <c r="D64" t="inlineStr"/>
+        <v>0.5799061844172272</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Beta blocker</t>
+          <t>Symptoms_name</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>14.09700642208352</v>
+        <v>5.660246757612585</v>
       </c>
       <c r="C65" t="n">
-        <v>0.006991801200777611</v>
+        <v>0.2259986253286266</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Significant</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>THROMBOLYSIS</t>
+          <t>PRECEDING_ACTIVITY</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.3712141776394673</v>
+        <v>4.120460277866981</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5423431800732004</v>
-      </c>
-      <c r="D66" t="inlineStr"/>
+        <v>0.1274246411490926</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>RWMA</t>
+          <t>CardiacStatus_Presentation</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.003580054935816004</v>
+        <v>131.842149346013</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9522881962113109</v>
-      </c>
-      <c r="D67" t="inlineStr"/>
+        <v>2.348772905298489e-29</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>EJECTION FRACTION(%)</t>
+          <t>Time since symptoms onset to first medical contact</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>43.9521120369062</v>
+        <v>5.583627178349474</v>
       </c>
       <c r="C68" t="n">
-        <v>2.368652670345275e-08</v>
+        <v>0.2324757954505293</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Significant</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PRESENCE OF MITRAL REGURGITATION</t>
+          <t>Mode_of_transport</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>287.893173379495</v>
+        <v>6.837449679819033</v>
       </c>
       <c r="C69" t="n">
-        <v>4.148090291191982e-62</v>
+        <v>0.03275417513757838</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Significant</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>LV THROMBUS</t>
+          <t>Type of First Medical Contact</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>38.27184073954347</v>
+        <v>0.08839823529958726</v>
       </c>
       <c r="C70" t="n">
-        <v>6.154437157779015e-10</v>
+        <v>0.7662234297399017</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Significant</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>VSD</t>
+          <t>Nature of Treatment</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>49.29718448025415</v>
+        <v>2.949544823387907</v>
       </c>
       <c r="C71" t="n">
-        <v>2.199779925357968e-12</v>
+        <v>0.2288308003335811</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Significant</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>LV ANEURYSM</t>
+          <t>MItype_on_ECG</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>63.30150418350568</v>
+        <v>0.343546349347515</v>
       </c>
       <c r="C72" t="n">
-        <v>1.773688145390625e-15</v>
+        <v>0.9516408965497388</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Significant</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ACUTE_MR</t>
+          <t>Beta blocker</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>72.80180783603235</v>
+        <v>14.09700642208352</v>
       </c>
       <c r="C73" t="n">
-        <v>1.433454856537554e-17</v>
+        <v>0.006991801200777611</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Significant</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BASELINE SERUM CREATININE</t>
+          <t>THROMBOLYSIS</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-0.7613222658070451</v>
+        <v>0.3712141776394673</v>
       </c>
       <c r="C74" t="n">
-        <v>0.4472145015489534</v>
-      </c>
-      <c r="D74" t="inlineStr"/>
+        <v>0.5423431800732004</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>HAEMOGLOBIN</t>
+          <t>RWMA</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1.243247382274485</v>
+        <v>0.003580054935816004</v>
       </c>
       <c r="C75" t="n">
-        <v>0.2149193863498248</v>
-      </c>
-      <c r="D75" t="inlineStr"/>
+        <v>0.9522881962113109</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>HBA1C</t>
+          <t>Trop_T</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>4.759889789535324</v>
+        <v>0.03869922904611143</v>
       </c>
       <c r="C76" t="n">
-        <v>3.124698435258619e-06</v>
+        <v>0.8440457220124487</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Significant</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Total_cholesterol</t>
+          <t>Coronary_angiography</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.3677038928963029</v>
+        <v>22.11050365478213</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7134078712283751</v>
-      </c>
-      <c r="D77" t="inlineStr"/>
+        <v>1.580393137956131e-05</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>LDL</t>
+          <t>Age 65-74/&gt;75</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.7105450493602388</v>
+        <v>10.30475957431556</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4780315764987272</v>
-      </c>
-      <c r="D78" t="inlineStr"/>
+        <v>0.00578561978706754</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>HDL</t>
+          <t>Systolic BP&lt;100</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.03396153116542273</v>
+        <v>73.06738965449915</v>
       </c>
       <c r="C79" t="n">
-        <v>0.9729337806180898</v>
-      </c>
-      <c r="D79" t="inlineStr"/>
+        <v>1.252977513975094e-17</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Triglycerides</t>
+          <t>Heart Rate&gt;100</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.3050549226893559</v>
+        <v>9.22928552801441</v>
       </c>
       <c r="C80" t="n">
-        <v>0.7605726939516165</v>
-      </c>
-      <c r="D80" t="inlineStr"/>
+        <v>0.002381745678264956</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>APO B(g/l)</t>
+          <t>KILLIP II-IV</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>5.243420237720859</v>
+        <v>63.73280259104504</v>
       </c>
       <c r="C81" t="n">
-        <v>3.180989585011831e-07</v>
+        <v>1.424920570267967e-15</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Significant</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Liporotein A</t>
+          <t>Anterior STE or LBBB</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>3.446608394388543</v>
+        <v>0.03188344315498007</v>
       </c>
       <c r="C82" t="n">
-        <v>0.000656396260328045</v>
+        <v>0.8582837117260116</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Significant</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Trop_T</t>
+          <t>H/O Diabetes, HTN or Angina</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.03869922904611143</v>
+        <v>42.36740648436264</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8440457220124487</v>
-      </c>
-      <c r="D83" t="inlineStr"/>
+        <v>7.564013375814875e-11</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Coronary_angiography</t>
+          <t>Weight &lt; 67 Kgs</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>22.11050365478213</v>
+        <v>4.808093441574595</v>
       </c>
       <c r="C84" t="n">
-        <v>1.580393137956131e-05</v>
+        <v>0.02832636798905187</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Significant</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Age 65-74/&gt;75</t>
+          <t>Time to Treatment &gt;4 Hours</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>10.30475957431556</v>
+        <v>5.145881977272849</v>
       </c>
       <c r="C85" t="n">
-        <v>0.00578561978706754</v>
+        <v>0.02330157078029437</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Significant</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Systolic BP&lt;100</t>
+          <t>EJECTION FRACTION(%)</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>73.06738965449915</v>
+        <v>43.9521120369062</v>
       </c>
       <c r="C86" t="n">
-        <v>1.252977513975094e-17</v>
+        <v>2.368652670345275e-08</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Significant</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Heart Rate&gt;100</t>
+          <t>PRESENCE OF MITRAL REGURGITATION</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>9.22928552801441</v>
+        <v>287.893173379495</v>
       </c>
       <c r="C87" t="n">
-        <v>0.002381745678264956</v>
+        <v>4.148090291191982e-62</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Significant</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>KILLIP II-IV</t>
+          <t>LV THROMBUS</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>63.73280259104504</v>
+        <v>38.27184073954347</v>
       </c>
       <c r="C88" t="n">
-        <v>1.424920570267967e-15</v>
+        <v>6.154437157779015e-10</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Significant</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Anterior STE or LBBB</t>
+          <t>VSD</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.03188344315498007</v>
+        <v>49.29718448025415</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8582837117260116</v>
-      </c>
-      <c r="D89" t="inlineStr"/>
+        <v>2.199779925357968e-12</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>H/O Diabetes, HTN or Angina</t>
+          <t>LV ANEURYSM</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>42.36740648436264</v>
+        <v>63.30150418350568</v>
       </c>
       <c r="C90" t="n">
-        <v>7.564013375814875e-11</v>
+        <v>1.773688145390625e-15</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Significant</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Weight &lt; 67 Kgs</t>
+          <t>ACUTE_MR</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>4.808093441574595</v>
+        <v>72.80180783603235</v>
       </c>
       <c r="C91" t="n">
-        <v>0.02832636798905187</v>
-      </c>
-      <c r="D91" t="inlineStr"/>
+        <v>1.433454856537554e-17</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Time to Treatment &gt;4 Hours</t>
+          <t>Time_since_symptom_onset_to_1st_ECG</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>5.145881977272849</v>
+        <v>28.100467478619</v>
       </c>
       <c r="C92" t="n">
-        <v>0.02330157078029437</v>
-      </c>
-      <c r="D92" t="inlineStr"/>
+        <v>0.1070423468484593</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/feature_select/feature_tests.xlsx
+++ b/feature_select/feature_tests.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:D223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-4.14876406492647</v>
+        <v>-4.148764064926475</v>
       </c>
       <c r="C2" t="n">
-        <v>4.541319311981345e-05</v>
+        <v>4.54131931198127e-05</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -483,7 +483,7 @@
         <v>-5.590892283513144</v>
       </c>
       <c r="C3" t="n">
-        <v>5.98009298650165e-08</v>
+        <v>5.980092986501669e-08</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-3.733747506234556</v>
+        <v>-3.733747506234555</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002302766207072653</v>
+        <v>0.0002302766207072658</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -516,10 +516,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.744891299187858</v>
+        <v>1.744891299187878</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08218919358353449</v>
+        <v>0.08218919358353084</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -534,10 +534,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.913267965563889</v>
+        <v>2.913267965563894</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003869249071152921</v>
+        <v>0.003869249071152859</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.234362666501038</v>
+        <v>-3.234362666501032</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001383804588752184</v>
+        <v>0.001383804588752217</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.042188989871409</v>
+        <v>6.042188989871407</v>
       </c>
       <c r="C8" t="n">
-        <v>5.73848486163851e-09</v>
+        <v>5.738484861638594e-09</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.59028242181165</v>
+        <v>5.590282421811646</v>
       </c>
       <c r="C9" t="n">
-        <v>6.244306992381806e-08</v>
+        <v>6.244306992381918e-08</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -606,10 +606,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.3236946377134959</v>
+        <v>-0.3236946377134939</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7464310073287435</v>
+        <v>0.7464310073287448</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.7613222658070451</v>
+        <v>-0.7613222658070424</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4472145015489534</v>
+        <v>0.4472145015489549</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -642,10 +642,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.243247382274485</v>
+        <v>1.243247382274466</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2149193863498248</v>
+        <v>0.2149193863498319</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>4.759889789535324</v>
       </c>
       <c r="C13" t="n">
-        <v>3.124698435258619e-06</v>
+        <v>3.124698435258642e-06</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3677038928963029</v>
+        <v>0.3677038928963056</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7134078712283751</v>
+        <v>0.7134078712283731</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -696,10 +696,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7105450493602388</v>
+        <v>0.710545049360232</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4780315764987272</v>
+        <v>0.4780315764987315</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -714,10 +714,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03396153116542273</v>
+        <v>0.03396153116541559</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9729337806180898</v>
+        <v>0.9729337806180955</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3050549226893559</v>
+        <v>0.3050549226893514</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7605726939516165</v>
+        <v>0.76057269395162</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.243420237720859</v>
+        <v>5.24342023772086</v>
       </c>
       <c r="C18" t="n">
-        <v>3.180989585011831e-07</v>
+        <v>3.180989585011808e-07</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -768,10 +768,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.446608394388543</v>
+        <v>3.44660839438854</v>
       </c>
       <c r="C19" t="n">
-        <v>0.000656396260328045</v>
+        <v>0.0006563962603280505</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.5220809801768388</v>
+        <v>0.522080980176839</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6020760192082126</v>
+        <v>0.6020760192082124</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -800,14 +800,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Sex_Female</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>11.53454624583081</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0006831474935969359</v>
+        <v>0.0006831474935969348</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -818,32 +818,32 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Presentation</t>
+          <t>Sex_Male</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.458947297404109e-07</v>
+        <v>11.53454624583081</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9993109055108372</v>
+        <v>0.0006831474935969359</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>father</t>
+          <t>Presentation_Direct</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.4240332651805472</v>
+        <v>7.458947297404109e-07</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5149313535052109</v>
+        <v>0.9993109055108372</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -854,14 +854,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>mother</t>
+          <t>Presentation_Referral</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.437007575527429</v>
+        <v>7.458947297404109e-07</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1185020950231579</v>
+        <v>0.9993109055108372</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -872,14 +872,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>firstdeg</t>
+          <t>father_No</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0005331247262204686</v>
+        <v>0.4240332651805472</v>
       </c>
       <c r="C25" t="n">
-        <v>0.98157888614725</v>
+        <v>0.5149313535052108</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -890,14 +890,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>seconddeg</t>
+          <t>father_Yes</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02521408139364543</v>
+        <v>0.4240332651805472</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8738347809710847</v>
+        <v>0.5149313535052109</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -908,14 +908,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Atrial fib flutter</t>
+          <t>mother_No</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>2.437007575527429</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0.1185020950231579</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -926,14 +926,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Heart Failure</t>
+          <t>mother_Yes</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.313333360732582</v>
+        <v>2.437007575527429</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2517920180003121</v>
+        <v>0.1185020950231579</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -944,14 +944,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PriorPCI</t>
+          <t>firstdeg_No</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0101333168749623</v>
+        <v>0.0005331247262204687</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9198168904122365</v>
+        <v>0.98157888614725</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -962,32 +962,32 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Diabetes Mellitus</t>
+          <t>firstdeg_Yes</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>37.88543291702035</v>
+        <v>0.0005331247262204686</v>
       </c>
       <c r="C30" t="n">
-        <v>7.502333406120172e-10</v>
+        <v>0.98157888614725</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Cancer</t>
+          <t>seconddeg_No</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.313333360732582</v>
+        <v>0.02521408139364543</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2517920180003121</v>
+        <v>0.8738347809710847</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -998,25 +998,25 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Hypertension</t>
+          <t>seconddeg_Yes</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>14.9982716274579</v>
+        <v>0.02521408139364543</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0001076096896880798</v>
+        <v>0.8738347809710847</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Prior CABG</t>
+          <t>Atrial fib flutter_No</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1034,14 +1034,14 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Hyperlipidemia</t>
+          <t>Atrial fib flutter_Yes</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.539397352293505</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2147075303514012</v>
+        <v>1</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1052,14 +1052,14 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PAD</t>
+          <t>Heart Failure_No</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2972863886063807</v>
+        <v>1.313333360732582</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5855886337445986</v>
+        <v>0.2517920180003121</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1070,14 +1070,14 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Prior CVA</t>
+          <t>Heart Failure_Yes</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1.313333360732582</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0.2517920180003121</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1088,14 +1088,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Prior Angina</t>
+          <t>PriorPCI_No</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.970802897550447</v>
+        <v>0.0101333168749623</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1603626647084065</v>
+        <v>0.9198168904122365</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1106,86 +1106,86 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Physical_Activity</t>
+          <t>PriorPCI_Yes</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>8.698961368758162</v>
+        <v>0.0101333168749623</v>
       </c>
       <c r="C38" t="n">
-        <v>0.003183914166166145</v>
+        <v>0.9198168904122365</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Average_Sleep_Duration</t>
+          <t>Diabetes Mellitus_No</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>5.541275981347471</v>
+        <v>37.88543291702035</v>
       </c>
       <c r="C39" t="n">
-        <v>0.06262203971754214</v>
+        <v>7.502333406120172e-10</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Stress_Home</t>
+          <t>Diabetes Mellitus_Yes</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.65798557223285</v>
+        <v>37.88543291702035</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3008425266173504</v>
+        <v>7.502333406120172e-10</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Stress_Work_Related</t>
+          <t>Cancer_No</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>8.668355206434674</v>
+        <v>1.313333360732582</v>
       </c>
       <c r="C41" t="n">
-        <v>0.03404125704829553</v>
+        <v>0.2517920180003121</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Stress_General</t>
+          <t>Cancer_Yes</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4.788872742492066</v>
+        <v>1.313333360732582</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1879259858493902</v>
+        <v>0.2517920180003121</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1196,14 +1196,14 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Tobacco_Use</t>
+          <t>Hypertension_No</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.98478674580767</v>
+        <v>14.9982716274579</v>
       </c>
       <c r="C43" t="n">
-        <v>2.14541417487013e-10</v>
+        <v>0.0001076096896880798</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1214,14 +1214,14 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Beedi</t>
+          <t>Hypertension_Yes</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>32.6689849648201</v>
+        <v>14.9982716274579</v>
       </c>
       <c r="C44" t="n">
-        <v>1.092669143339376e-08</v>
+        <v>0.0001076096896880798</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1232,25 +1232,25 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Cigarette</t>
+          <t>Prior CABG_No</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5.059024283306032</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.02449802660579986</v>
+        <v>1</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Hookah</t>
+          <t>Prior CABG_Yes</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1268,14 +1268,14 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Tobacco Chewing</t>
+          <t>Hyperlipidemia_No</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.4368060456658731</v>
+        <v>1.539397352293504</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5086680833308559</v>
+        <v>0.2147075303514013</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1286,14 +1286,14 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multiple </t>
+          <t>Hyperlipidemia_Yes</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2.831938922127909</v>
+        <v>1.539397352293505</v>
       </c>
       <c r="C48" t="n">
-        <v>0.09240673341195649</v>
+        <v>0.2147075303514012</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1304,14 +1304,14 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Alcohol</t>
+          <t>PAD_No</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4.100253169337439</v>
+        <v>0.2972863886063806</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2508401093429057</v>
+        <v>0.5855886337445986</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1322,14 +1322,14 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Gym_Supplements</t>
+          <t>PAD_Yes</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.5381922819352501</v>
+        <v>0.2972863886063807</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4631828704418429</v>
+        <v>0.5855886337445986</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Cannabis</t>
+          <t>Prior CVA_No</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1358,14 +1358,14 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Walking</t>
+          <t>Prior CVA_Yes</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.3329049314527511</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8466630614925669</v>
+        <v>1</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1376,86 +1376,86 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ASPRIN</t>
+          <t>Prior Angina_No</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>8.749033671628233</v>
+        <v>1.970802897550447</v>
       </c>
       <c r="C53" t="n">
-        <v>0.00309766155277315</v>
+        <v>0.1603626647084065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>STATIN</t>
+          <t>Prior Angina_Yes</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>6.191520826578211</v>
+        <v>1.970802897550447</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0128363826795191</v>
+        <v>0.1603626647084065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>P2Y12 Inhibitors</t>
+          <t>Physical_Activity_No</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>8.698961368758162</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0.003183914166166145</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Beta_blocker</t>
+          <t>Physical_Activity_Yes</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.6275470576711925</v>
+        <v>8.698961368758162</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4282564993284859</v>
+        <v>0.003183914166166145</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CalciumChannel</t>
+          <t>Average_Sleep_Duration_6-8 Hours</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.6801213337250624</v>
+        <v>0.2442816733655972</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4095449464260514</v>
+        <v>0.6211306243587132</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1466,14 +1466,14 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ACE ARB</t>
+          <t>Average_Sleep_Duration_&lt; 6 Hours</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.9024072561746328</v>
+        <v>3.731842903532133</v>
       </c>
       <c r="C58" t="n">
-        <v>0.3421370563648333</v>
+        <v>0.05338446252015801</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1484,14 +1484,14 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Aldosterone Blocking Antagonist</t>
+          <t>Average_Sleep_Duration_&gt; 8 Hours</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.2750203661656409</v>
+        <v>1.670502084878505</v>
       </c>
       <c r="C59" t="n">
-        <v>0.59998377718288</v>
+        <v>0.1961912978335952</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1502,14 +1502,14 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Anticoagulant</t>
+          <t>Stress_Home_Never</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.05225432383535633</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8191860066901225</v>
+        <v>1</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1520,14 +1520,14 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>INSULIN</t>
+          <t>Stress_Home_Permanent</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1.519484942763439</v>
+        <v>0.3843320148548461</v>
       </c>
       <c r="C61" t="n">
-        <v>0.2176974533989677</v>
+        <v>0.535293885307897</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1538,14 +1538,14 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Oral Anti glycemics</t>
+          <t>Stress_Home_Several Times</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1.977110555838218</v>
+        <v>1.870464616614415</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9217916497222836</v>
+        <v>0.1714218758816436</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1556,14 +1556,14 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Homeopathy</t>
+          <t>Stress_Home_Sometimes</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.02521408139364543</v>
+        <v>1.930431757629072</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8738347809710847</v>
+        <v>0.1647112161829645</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1574,14 +1574,14 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Ayurveda</t>
+          <t>Stress_Work_Related_Never</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.3063863390166748</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5799061844172272</v>
+        <v>1</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1592,14 +1592,14 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Symptoms_name</t>
+          <t>Stress_Work_Related_Permanent</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>5.660246757612585</v>
+        <v>1.266835209298067</v>
       </c>
       <c r="C65" t="n">
-        <v>0.2259986253286266</v>
+        <v>0.2603612331354356</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1610,32 +1610,32 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PRECEDING_ACTIVITY</t>
+          <t>Stress_Work_Related_Several Times</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>4.120460277866981</v>
+        <v>4.790205906828159</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1274246411490926</v>
+        <v>0.02862200481942341</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CardiacStatus_Presentation</t>
+          <t>Stress_Work_Related_Sometimes</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>131.842149346013</v>
+        <v>4.890903982525248</v>
       </c>
       <c r="C67" t="n">
-        <v>2.348772905298489e-29</v>
+        <v>0.02699854625703261</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1646,14 +1646,14 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Time since symptoms onset to first medical contact</t>
+          <t>Stress_General_Never</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5.583627178349474</v>
+        <v>0.7433652078702206</v>
       </c>
       <c r="C68" t="n">
-        <v>0.2324757954505293</v>
+        <v>0.3885850099592482</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1664,32 +1664,32 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Mode_of_transport</t>
+          <t>Stress_General_Permanent</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>6.837449679819033</v>
+        <v>0.3500125706618408</v>
       </c>
       <c r="C69" t="n">
-        <v>0.03275417513757838</v>
+        <v>0.5541060142095489</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Type of First Medical Contact</t>
+          <t>Stress_General_Several Times</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.08839823529958726</v>
+        <v>3.202694281620046</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7662234297399017</v>
+        <v>0.0735170644232946</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1700,14 +1700,14 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Nature of Treatment</t>
+          <t>Stress_General_Sometimes</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2.949544823387907</v>
+        <v>0.7729227589408849</v>
       </c>
       <c r="C71" t="n">
-        <v>0.2288308003335811</v>
+        <v>0.3793143894261441</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1718,50 +1718,50 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>MItype_on_ECG</t>
+          <t>Tobacco_Use_Current-Every Day</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.343546349347515</v>
+        <v>46.80292086979419</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9516408965497388</v>
+        <v>7.849632884668717e-12</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Beta blocker</t>
+          <t>Tobacco_Use_Current-Some Day</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>14.09700642208352</v>
+        <v>0.04610804649000996</v>
       </c>
       <c r="C73" t="n">
-        <v>0.006991801200777611</v>
+        <v>0.8299795134383283</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>THROMBOLYSIS</t>
+          <t>Tobacco_Use_Former</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.3712141776394673</v>
+        <v>0.7045982212275302</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5423431800732004</v>
+        <v>0.4012429253446286</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1772,50 +1772,50 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>RWMA</t>
+          <t>Tobacco_Use_Never</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.003580054935816004</v>
+        <v>39.71791305958317</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9522881962113109</v>
+        <v>2.934218797251596e-10</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Trop_T</t>
+          <t>Beedi_No</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.03869922904611143</v>
+        <v>32.6689849648201</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8440457220124487</v>
+        <v>1.092669143339376e-08</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Coronary_angiography</t>
+          <t>Beedi_Yes</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>22.11050365478213</v>
+        <v>32.6689849648201</v>
       </c>
       <c r="C77" t="n">
-        <v>1.580393137956131e-05</v>
+        <v>1.092669143339376e-08</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1826,14 +1826,14 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Age 65-74/&gt;75</t>
+          <t>Cigarette_No</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>10.30475957431556</v>
+        <v>5.059024283306032</v>
       </c>
       <c r="C78" t="n">
-        <v>0.00578561978706754</v>
+        <v>0.02449802660579986</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1844,14 +1844,14 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Systolic BP&lt;100</t>
+          <t>Cigarette_Yes</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>73.06738965449915</v>
+        <v>5.059024283306032</v>
       </c>
       <c r="C79" t="n">
-        <v>1.252977513975094e-17</v>
+        <v>0.02449802660579986</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1862,50 +1862,50 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Heart Rate&gt;100</t>
+          <t>Hookah_No</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>9.22928552801441</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>0.002381745678264956</v>
+        <v>1</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>KILLIP II-IV</t>
+          <t>Hookah_Yes</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>63.73280259104504</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>1.424920570267967e-15</v>
+        <v>1</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Anterior STE or LBBB</t>
+          <t>Tobacco Chewing_No</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.03188344315498007</v>
+        <v>0.4368060456658732</v>
       </c>
       <c r="C82" t="n">
-        <v>0.8582837117260116</v>
+        <v>0.5086680833308559</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1916,178 +1916,2541 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>H/O Diabetes, HTN or Angina</t>
+          <t>Tobacco Chewing_Yes</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>42.36740648436264</v>
+        <v>0.4368060456658731</v>
       </c>
       <c r="C83" t="n">
-        <v>7.564013375814875e-11</v>
+        <v>0.5086680833308559</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Weight &lt; 67 Kgs</t>
+          <t>Multiple _No</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>4.808093441574595</v>
+        <v>2.831938922127909</v>
       </c>
       <c r="C84" t="n">
-        <v>0.02832636798905187</v>
+        <v>0.09240673341195649</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Time to Treatment &gt;4 Hours</t>
+          <t>Multiple _Yes</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>5.145881977272849</v>
+        <v>2.831938922127909</v>
       </c>
       <c r="C85" t="n">
-        <v>0.02330157078029437</v>
+        <v>0.09240673341195649</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>EJECTION FRACTION(%)</t>
+          <t>Alcohol_Current-Every Day</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>43.9521120369062</v>
+        <v>0.05214803758433154</v>
       </c>
       <c r="C86" t="n">
-        <v>2.368652670345275e-08</v>
+        <v>0.819366812219267</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>PRESENCE OF MITRAL REGURGITATION</t>
+          <t>Alcohol_Current-Some Day</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>287.893173379495</v>
+        <v>0.8693922707555704</v>
       </c>
       <c r="C87" t="n">
-        <v>4.148090291191982e-62</v>
+        <v>0.3511236087216386</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>LV THROMBUS</t>
+          <t>Alcohol_Former</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>38.27184073954347</v>
+        <v>1.831643139374611</v>
       </c>
       <c r="C88" t="n">
-        <v>6.154437157779015e-10</v>
+        <v>0.1759335892948978</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>VSD</t>
+          <t>Alcohol_Never</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>49.29718448025415</v>
+        <v>2.645401232707719</v>
       </c>
       <c r="C89" t="n">
-        <v>2.199779925357968e-12</v>
+        <v>0.1038499342624684</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>LV ANEURYSM</t>
+          <t>Gym_Supplements_No</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>63.30150418350568</v>
+        <v>0.5381922819352501</v>
       </c>
       <c r="C90" t="n">
-        <v>1.773688145390625e-15</v>
+        <v>0.4631828704418429</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ACUTE_MR</t>
+          <t>Gym_Supplements_Yes</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>72.80180783603235</v>
+        <v>0.5381922819352501</v>
       </c>
       <c r="C91" t="n">
-        <v>1.433454856537554e-17</v>
+        <v>0.4631828704418429</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Time_since_symptom_onset_to_1st_ECG</t>
+          <t>Cannabis_No</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>28.100467478619</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>0.1070423468484593</v>
+        <v>1</v>
       </c>
       <c r="D92" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Cannabis_Yes</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Walking_Assisted</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Walking_Unassisted</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Walking_Wheelchair</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>ASPRIN_No</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>8.749033671628233</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.00309766155277315</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>ASPRIN_Yes</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>8.749033671628233</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.00309766155277315</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>STATIN_No</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>6.191520826578211</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.0128363826795191</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>STATIN_Yes</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>6.191520826578211</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.0128363826795191</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>P2Y12 Inhibitors_No</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>P2Y12 Inhibitors_Yes</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Beta_blocker_No</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.6275470576711923</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.428256499328486</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Beta_blocker_Yes</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.6275470576711925</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.4282564993284859</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>CalciumChannel_No</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.6801213337250626</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.4095449464260512</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>CalciumChannel_Yes</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.6801213337250624</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.4095449464260514</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>ACE ARB_No</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.9024072561746327</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.3421370563648333</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>ACE ARB_Yes</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.9024072561746328</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.3421370563648333</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Aldosterone Blocking Antagonist_No</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.2750203661656409</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.5999837771828801</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Aldosterone Blocking Antagonist_Yes</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.2750203661656409</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.59998377718288</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Anticoagulant_No</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.05225432383535633</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.8191860066901225</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Anticoagulant_Yes</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.05225432383535633</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.8191860066901225</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>INSULIN_No</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>1.519484942763439</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.2176974533989678</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>INSULIN_Yes</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1.519484942763439</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.2176974533989677</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Oral Anti glycemics_GLP-1 Analogue</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Oral Anti glycemics_Metformin</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0.4639962200538769</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.4957622326742281</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Oral Anti glycemics_Metformin 
+DPP-4 Inhibitors</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Oral Anti glycemics_Metformin 
+GLP-1 Analogue</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0.0001055757452908934</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.9918018757213782</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Oral Anti glycemics_Metformin 
+Sulfonylurea</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0.04084643665933694</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.8398346281939495</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Oral Anti glycemics_No</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0.1226027305762442</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.7262285845378226</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Oral Anti glycemics_Sulfonylurea</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Homeopathy_No</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0.02521408139364543</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.8738347809710847</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Homeopathy_Yes</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0.02521408139364543</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.8738347809710847</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Ayurveda_No</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0.3063863390166747</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.5799061844172273</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Ayurveda_Yes</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0.3063863390166748</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.5799061844172272</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Symptoms_name_Chest Pain</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0.1853459217606729</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.6668187293882488</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Symptoms_name_Chest Pain, Vomiting</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Symptoms_name_Chest Pain,Diaphoresis</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0.1167676829763057</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.7325669884826673</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Symptoms_name_Chest Pain,Shortness of Breath</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>3.5372817387666</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.06000372123191546</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Symptoms_name_Chest Pain,Syncope</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1.068041459871437</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.3013882529985669</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>PRECEDING_ACTIVITY_Exertional</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>0.01803775132172452</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.8931616401514307</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>PRECEDING_ACTIVITY_Non-Exertional</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>2.154390569856476</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.1421628402210106</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>PRECEDING_ACTIVITY_Sleep</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>3.728922193970287</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.05347789105588389</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>CardiacStatus_Presentation_Cardiogenic Shock</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>83.60603158368686</v>
+      </c>
+      <c r="C134" t="n">
+        <v>6.038853668883026e-20</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>CardiacStatus_Presentation_Chest Pain</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>111.0517758963742</v>
+      </c>
+      <c r="C135" t="n">
+        <v>5.76453380835286e-26</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>CardiacStatus_Presentation_Heart failure</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>36.55283327936943</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1.485838397742807e-09</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Time since symptoms onset to first medical contact_1-3 days</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0.06987740643685483</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.7915153597612531</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Time since symptoms onset to first medical contact_1-3 hours</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>2.731142428830711</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.09840886805808208</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Time since symptoms onset to first medical contact_12-24 hours</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0.0016401225653789</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.9676957613236736</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Time since symptoms onset to first medical contact_3-12 hours</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>3.60022446735588</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.05777177011424963</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Time since symptoms onset to first medical contact_&lt;1 hour</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1.097349688721952</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.2948484733967152</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Mode_of_transport_Ambulance</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>6.399041394238246</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.01141820003813444</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Mode_of_transport_Public Transport</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1.555076312629461</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.2123876015123729</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Mode_of_transport_Self</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>3.008555701764112</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.082826061013771</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Type of First Medical Contact_Non-PCI Center Clinic Hospital</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0.08839823529958726</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.7662234297399017</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Type of First Medical Contact_PCI Capable Center</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0.08839823529958726</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.7662234297399017</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Nature of Treatment_DAPT AND ANTICOAGULANT 
+STATINS</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>2.360349649140649</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.1244542916959563</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Nature of Treatment_DAPT AND STATINS ONLY</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0.4492271237041855</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.5027022096525564</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Nature of Treatment_DAPT AND THROMBOLYSIS (Type of Thrombolytic Agent) 
+STATINS</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0.3712141776394673</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.5423431800732004</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>MItype_on_ECG_Anterior Wall MI</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0.03188344315498007</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.8582837117260116</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>MItype_on_ECG_Inferior Wall MI</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0.05194331719276003</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.8197156130245369</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>MItype_on_ECG_Lateral Wall MI</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0.0101333168749623</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.9198168904122365</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>MItype_on_ECG_Posterior Wall MI</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>0</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Beta blocker_NO</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>2.463767060284072</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.1164990850972909</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Beta blocker_No</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>6.31048113156667</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.01200262633495466</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Beta blocker_Yes</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>5.893999600874405</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.01519255706557678</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Beta blocker_no</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>2.226432253507486</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.1356667974046654</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Beta blocker_yes</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0.02521408139364543</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.8738347809710847</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>THROMBOLYSIS_No</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0.3712141776394673</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.5423431800732004</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>THROMBOLYSIS_Yes</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0.3712141776394673</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.5423431800732004</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>RWMA_No</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>0.003580054935816004</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.9522881962113109</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>RWMA_Yes</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0.003580054935816004</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.9522881962113109</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Trop_T_No</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0.03869922904611142</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.8440457220124487</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Trop_T_Yes</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>0.03869922904611143</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.8440457220124487</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Coronary_angiography_0</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>0.07725253268097482</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.7810558088385039</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Coronary_angiography_No</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>12.32598569965709</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.0004466959941541908</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Coronary_angiography_Yes</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>19.6911159871256</v>
+      </c>
+      <c r="C167" t="n">
+        <v>9.102354686328641e-06</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Age 65-74/&gt;75_0</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>8.064781868333643</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.004513390856668038</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Age 65-74/&gt;75_2</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>2.730352095256582</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.09845757664341184</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Age 65-74/&gt;75_3</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>5.398447887478924</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.02015466754941115</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Systolic BP&lt;100_0</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>73.06738965449915</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1.252977513975094e-17</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Systolic BP&lt;100_3</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>73.06738965449915</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1.252977513975094e-17</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Heart Rate&gt;100_0</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>9.229285528014412</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.002381745678264953</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Heart Rate&gt;100_2</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>9.22928552801441</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.002381745678264956</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>KILLIP II-IV_0</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>63.73280259104505</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1.424920570267962e-15</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>KILLIP II-IV_2</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>63.73280259104504</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1.424920570267967e-15</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Anterior STE or LBBB_0</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>0.03188344315498007</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.8582837117260116</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Anterior STE or LBBB_1</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>0.03188344315498007</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.8582837117260116</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>H/O Diabetes, HTN or Angina_0</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>42.36740648436264</v>
+      </c>
+      <c r="C179" t="n">
+        <v>7.564013375814875e-11</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>H/O Diabetes, HTN or Angina_1</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>42.36740648436264</v>
+      </c>
+      <c r="C180" t="n">
+        <v>7.564013375814875e-11</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Weight &lt; 67 Kgs_0</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>4.808093441574595</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.02832636798905187</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Weight &lt; 67 Kgs_1</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>4.808093441574595</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.02832636798905187</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Time to Treatment &gt;4 Hours_0</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>5.145881977272849</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.02330157078029437</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Time to Treatment &gt;4 Hours_1</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>5.145881977272849</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.02330157078029437</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>EJECTION FRACTION(%)_20-25</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>9.804109450121702</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.001741223352329961</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>EJECTION FRACTION(%)_25-30</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>5.352919109221496</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.02068760742541907</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>EJECTION FRACTION(%)_30-35</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>10.91824076250443</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.0009522199169877955</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>EJECTION FRACTION(%)_35-40</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>1.951362020880967e-07</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.9996475407023874</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>EJECTION FRACTION(%)_40-45</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>21.49086380269405</v>
+      </c>
+      <c r="C189" t="n">
+        <v>3.55518439048462e-06</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>EJECTION FRACTION(%)_&gt;50</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>3.644919121190584</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.05624053540458172</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>PRESENCE OF MITRAL REGURGITATION_Mild</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>105.3260635305694</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1.036044187951704e-24</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>PRESENCE OF MITRAL REGURGITATION_Moderate</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>79.09265373422389</v>
+      </c>
+      <c r="C192" t="n">
+        <v>5.926429268355162e-19</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>PRESENCE OF MITRAL REGURGITATION_No</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>252.7441711591247</v>
+      </c>
+      <c r="C193" t="n">
+        <v>6.549353179715934e-57</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>PRESENCE OF MITRAL REGURGITATION_Severe</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>69.6900939524662</v>
+      </c>
+      <c r="C194" t="n">
+        <v>6.939373827675528e-17</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>LV THROMBUS_No</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>38.27184073954347</v>
+      </c>
+      <c r="C195" t="n">
+        <v>6.154437157779015e-10</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>LV THROMBUS_Yes</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>38.27184073954347</v>
+      </c>
+      <c r="C196" t="n">
+        <v>6.154437157779015e-10</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>VSD_No</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>49.29718448025415</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2.199779925357968e-12</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>VSD_Yes</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>49.29718448025415</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2.199779925357968e-12</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>LV ANEURYSM_No</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>63.30150418350568</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1.77368814539063e-15</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>LV ANEURYSM_Yes</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>63.30150418350568</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1.773688145390625e-15</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>ACUTE_MR_No</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>72.80180783603234</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1.433454856537564e-17</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>ACUTE_MR_Yes</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>72.80180783603235</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1.433454856537554e-17</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Time_since_symptom_onset_to_1st_ECG_1 HOUR</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>1.097349688721952</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.2948484733967152</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Time_since_symptom_onset_to_1st_ECG_10 HOURS</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>1.01843728856882</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.3128899756733933</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Time_since_symptom_onset_to_1st_ECG_11 HOURS</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>0</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Time_since_symptom_onset_to_1st_ECG_12 HOURS</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>0.08903803311456947</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.7654036777683395</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Time_since_symptom_onset_to_1st_ECG_13 HOURS</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>0</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Time_since_symptom_onset_to_1st_ECG_14 HOURS</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>0.1042688950899602</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0.7467657165358786</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Time_since_symptom_onset_to_1st_ECG_16 HOURS</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>0</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Time_since_symptom_onset_to_1st_ECG_2 HOURS</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>2.731142428830711</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.09840886805808208</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Time_since_symptom_onset_to_1st_ECG_24 HOURS</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>5.904344514158367</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.01510358510871346</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Time_since_symptom_onset_to_1st_ECG_26 HOURS</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>0</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Time_since_symptom_onset_to_1st_ECG_27 HOURS</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>0</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Time_since_symptom_onset_to_1st_ECG_3 HOURS</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>2.661685754921578</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.102791741107073</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Time_since_symptom_onset_to_1st_ECG_30 HOURS</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>0.00254556723612612</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.9597609124031612</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Time_since_symptom_onset_to_1st_ECG_4 HOURS</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>0.3051277359383845</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0.5806855058341196</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Time_since_symptom_onset_to_1st_ECG_48 HOURS</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>0.5770330537378033</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0.4474776246385914</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Time_since_symptom_onset_to_1st_ECG_5 HOURS</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>0.1417327483367787</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.7065644664579249</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Time_since_symptom_onset_to_1st_ECG_6 HOURS</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>0.002402224542485473</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.9609093393430677</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Time_since_symptom_onset_to_1st_ECG_7 HOURS</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>0.09885906528657637</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.7532031200028404</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Time_since_symptom_onset_to_1st_ECG_72 HOURS</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>0.3063863390166748</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.5799061844172272</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Time_since_symptom_onset_to_1st_ECG_8 HOURS</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>1.909767755511042</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.1669890590326304</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Time_since_symptom_onset_to_1st_ECG_9 HOURS</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>1.107163093150171</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0.2926994615078715</v>
+      </c>
+      <c r="D223" t="inlineStr">
         <is>
           <t>X</t>
         </is>

--- a/feature_select/feature_tests.xlsx
+++ b/feature_select/feature_tests.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D223"/>
+  <dimension ref="A1:D225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -800,14 +800,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sex_Female</t>
+          <t>Pack_Year</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>11.53454624583081</v>
+        <v>-3.835465230190333</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0006831474935969348</v>
+        <v>0.0001562311268669441</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -818,14 +818,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sex_Male</t>
+          <t>BMI</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.53454624583081</v>
+        <v>2.589797925427546</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0006831474935969359</v>
+        <v>0.01007404780431797</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -836,50 +836,50 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Presentation_Direct</t>
+          <t>Sex_Female</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.458947297404109e-07</v>
+        <v>11.53454624583081</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9993109055108372</v>
+        <v>0.0006831474935969348</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Presentation_Referral</t>
+          <t>Sex_Male</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.458947297404109e-07</v>
+        <v>11.53454624583081</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9993109055108372</v>
+        <v>0.0006831474935969359</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>father_No</t>
+          <t>Presentation_Direct</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4240332651805472</v>
+        <v>7.458947297404109e-07</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5149313535052108</v>
+        <v>0.9993109055108372</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -890,14 +890,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>father_Yes</t>
+          <t>Presentation_Referral</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.4240332651805472</v>
+        <v>7.458947297404109e-07</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5149313535052109</v>
+        <v>0.9993109055108372</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -908,14 +908,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>mother_No</t>
+          <t>father_No</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.437007575527429</v>
+        <v>0.4240332651805472</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1185020950231579</v>
+        <v>0.5149313535052108</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -926,14 +926,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>mother_Yes</t>
+          <t>father_Yes</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.437007575527429</v>
+        <v>0.4240332651805472</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1185020950231579</v>
+        <v>0.5149313535052109</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -944,14 +944,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>firstdeg_No</t>
+          <t>mother_No</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0005331247262204687</v>
+        <v>2.437007575527429</v>
       </c>
       <c r="C29" t="n">
-        <v>0.98157888614725</v>
+        <v>0.1185020950231579</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -962,14 +962,14 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>firstdeg_Yes</t>
+          <t>mother_Yes</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.0005331247262204686</v>
+        <v>2.437007575527429</v>
       </c>
       <c r="C30" t="n">
-        <v>0.98157888614725</v>
+        <v>0.1185020950231579</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -980,14 +980,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>seconddeg_No</t>
+          <t>firstdeg_No</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.02521408139364543</v>
+        <v>0.0005331247262204687</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8738347809710847</v>
+        <v>0.98157888614725</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -998,14 +998,14 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>seconddeg_Yes</t>
+          <t>firstdeg_Yes</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.02521408139364543</v>
+        <v>0.0005331247262204686</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8738347809710847</v>
+        <v>0.98157888614725</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1016,14 +1016,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Atrial fib flutter_No</t>
+          <t>seconddeg_No</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>0.02521408139364543</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0.8738347809710847</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1034,14 +1034,14 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Atrial fib flutter_Yes</t>
+          <t>seconddeg_Yes</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>0.02521408139364543</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0.8738347809710847</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1052,14 +1052,14 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Heart Failure_No</t>
+          <t>Atrial fib flutter_No</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.313333360732582</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2517920180003121</v>
+        <v>1</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1070,14 +1070,14 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Heart Failure_Yes</t>
+          <t>Atrial fib flutter_Yes</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.313333360732582</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2517920180003121</v>
+        <v>1</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1088,14 +1088,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PriorPCI_No</t>
+          <t>Heart Failure_No</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0101333168749623</v>
+        <v>1.313333360732582</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9198168904122365</v>
+        <v>0.2517920180003121</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1106,14 +1106,14 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PriorPCI_Yes</t>
+          <t>Heart Failure_Yes</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.0101333168749623</v>
+        <v>1.313333360732582</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9198168904122365</v>
+        <v>0.2517920180003121</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1124,158 +1124,158 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Diabetes Mellitus_No</t>
+          <t>PriorPCI_No</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>37.88543291702035</v>
+        <v>0.0101333168749623</v>
       </c>
       <c r="C39" t="n">
-        <v>7.502333406120172e-10</v>
+        <v>0.9198168904122365</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Diabetes Mellitus_Yes</t>
+          <t>PriorPCI_Yes</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>37.88543291702035</v>
+        <v>0.0101333168749623</v>
       </c>
       <c r="C40" t="n">
-        <v>7.502333406120172e-10</v>
+        <v>0.9198168904122365</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Cancer_No</t>
+          <t>Diabetes Mellitus_No</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.313333360732582</v>
+        <v>37.88543291702035</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2517920180003121</v>
+        <v>7.502333406120172e-10</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Cancer_Yes</t>
+          <t>Diabetes Mellitus_Yes</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.313333360732582</v>
+        <v>37.88543291702035</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2517920180003121</v>
+        <v>7.502333406120172e-10</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Hypertension_No</t>
+          <t>Cancer_No</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>14.9982716274579</v>
+        <v>1.313333360732582</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0001076096896880798</v>
+        <v>0.2517920180003121</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Hypertension_Yes</t>
+          <t>Cancer_Yes</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>14.9982716274579</v>
+        <v>1.313333360732582</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0001076096896880798</v>
+        <v>0.2517920180003121</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Prior CABG_No</t>
+          <t>Hypertension_No</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>14.9982716274579</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0.0001076096896880798</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Prior CABG_Yes</t>
+          <t>Hypertension_Yes</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>14.9982716274579</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0.0001076096896880798</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Hyperlipidemia_No</t>
+          <t>Prior CABG_No</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1.539397352293504</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.2147075303514013</v>
+        <v>1</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1286,14 +1286,14 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Hyperlipidemia_Yes</t>
+          <t>Prior CABG_Yes</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1.539397352293505</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2147075303514012</v>
+        <v>1</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1304,14 +1304,14 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PAD_No</t>
+          <t>Hyperlipidemia_No</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2972863886063806</v>
+        <v>1.539397352293504</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5855886337445986</v>
+        <v>0.2147075303514013</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1322,14 +1322,14 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PAD_Yes</t>
+          <t>Hyperlipidemia_Yes</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2972863886063807</v>
+        <v>1.539397352293505</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5855886337445986</v>
+        <v>0.2147075303514012</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1340,14 +1340,14 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Prior CVA_No</t>
+          <t>PAD_No</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>0.2972863886063806</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0.5855886337445986</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1358,14 +1358,14 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Prior CVA_Yes</t>
+          <t>PAD_Yes</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>0.2972863886063807</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0.5855886337445986</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1376,14 +1376,14 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Prior Angina_No</t>
+          <t>Prior CVA_No</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1.970802897550447</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1603626647084065</v>
+        <v>1</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1394,14 +1394,14 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Prior Angina_Yes</t>
+          <t>Prior CVA_Yes</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1.970802897550447</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1603626647084065</v>
+        <v>1</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1412,86 +1412,86 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Physical_Activity_No</t>
+          <t>Prior Angina_No</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>8.698961368758162</v>
+        <v>1.970802897550447</v>
       </c>
       <c r="C55" t="n">
-        <v>0.003183914166166145</v>
+        <v>0.1603626647084065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Physical_Activity_Yes</t>
+          <t>Prior Angina_Yes</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>8.698961368758162</v>
+        <v>1.970802897550447</v>
       </c>
       <c r="C56" t="n">
-        <v>0.003183914166166145</v>
+        <v>0.1603626647084065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Average_Sleep_Duration_6-8 Hours</t>
+          <t>Physical_Activity_No</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.2442816733655972</v>
+        <v>8.698961368758162</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6211306243587132</v>
+        <v>0.003183914166166145</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Average_Sleep_Duration_&lt; 6 Hours</t>
+          <t>Physical_Activity_Yes</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>3.731842903532133</v>
+        <v>8.698961368758162</v>
       </c>
       <c r="C58" t="n">
-        <v>0.05338446252015801</v>
+        <v>0.003183914166166145</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Average_Sleep_Duration_&gt; 8 Hours</t>
+          <t>Average_Sleep_Duration_6-8 Hours</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1.670502084878505</v>
+        <v>0.2442816733655972</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1961912978335952</v>
+        <v>0.6211306243587132</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1502,14 +1502,14 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Stress_Home_Never</t>
+          <t>Average_Sleep_Duration_&lt; 6 Hours</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>3.731842903532133</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0.05338446252015801</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1520,14 +1520,14 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Stress_Home_Permanent</t>
+          <t>Average_Sleep_Duration_&gt; 8 Hours</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.3843320148548461</v>
+        <v>1.670502084878505</v>
       </c>
       <c r="C61" t="n">
-        <v>0.535293885307897</v>
+        <v>0.1961912978335952</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1538,14 +1538,14 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Stress_Home_Several Times</t>
+          <t>Stress_Home_Never</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1.870464616614415</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1714218758816436</v>
+        <v>1</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1556,14 +1556,14 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Stress_Home_Sometimes</t>
+          <t>Stress_Home_Permanent</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1.930431757629072</v>
+        <v>0.3843320148548461</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1647112161829645</v>
+        <v>0.535293885307897</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1574,14 +1574,14 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Stress_Work_Related_Never</t>
+          <t>Stress_Home_Several Times</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1.870464616614415</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0.1714218758816436</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1592,14 +1592,14 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Stress_Work_Related_Permanent</t>
+          <t>Stress_Home_Sometimes</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1.266835209298067</v>
+        <v>1.930431757629072</v>
       </c>
       <c r="C65" t="n">
-        <v>0.2603612331354356</v>
+        <v>0.1647112161829645</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1610,86 +1610,86 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Stress_Work_Related_Several Times</t>
+          <t>Stress_Work_Related_Never</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>4.790205906828159</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0.02862200481942341</v>
+        <v>1</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Stress_Work_Related_Sometimes</t>
+          <t>Stress_Work_Related_Permanent</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>4.890903982525248</v>
+        <v>1.266835209298067</v>
       </c>
       <c r="C67" t="n">
-        <v>0.02699854625703261</v>
+        <v>0.2603612331354356</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Stress_General_Never</t>
+          <t>Stress_Work_Related_Several Times</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.7433652078702206</v>
+        <v>4.790205906828159</v>
       </c>
       <c r="C68" t="n">
-        <v>0.3885850099592482</v>
+        <v>0.02862200481942341</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Stress_General_Permanent</t>
+          <t>Stress_Work_Related_Sometimes</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.3500125706618408</v>
+        <v>4.890903982525248</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5541060142095489</v>
+        <v>0.02699854625703261</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Stress_General_Several Times</t>
+          <t>Stress_General_Never</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>3.202694281620046</v>
+        <v>0.7433652078702206</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0735170644232946</v>
+        <v>0.3885850099592482</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1700,14 +1700,14 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Stress_General_Sometimes</t>
+          <t>Stress_General_Permanent</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.7729227589408849</v>
+        <v>0.3500125706618408</v>
       </c>
       <c r="C71" t="n">
-        <v>0.3793143894261441</v>
+        <v>0.5541060142095489</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1718,32 +1718,32 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Tobacco_Use_Current-Every Day</t>
+          <t>Stress_General_Several Times</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>46.80292086979419</v>
+        <v>3.202694281620046</v>
       </c>
       <c r="C72" t="n">
-        <v>7.849632884668717e-12</v>
+        <v>0.0735170644232946</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Tobacco_Use_Current-Some Day</t>
+          <t>Stress_General_Sometimes</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.04610804649000996</v>
+        <v>0.7729227589408849</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8299795134383283</v>
+        <v>0.3793143894261441</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1754,68 +1754,68 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Tobacco_Use_Former</t>
+          <t>Tobacco_Use_Current-Every Day</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.7045982212275302</v>
+        <v>46.80292086979419</v>
       </c>
       <c r="C74" t="n">
-        <v>0.4012429253446286</v>
+        <v>7.849632884668717e-12</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Tobacco_Use_Never</t>
+          <t>Tobacco_Use_Current-Some Day</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>39.71791305958317</v>
+        <v>0.04610804649000996</v>
       </c>
       <c r="C75" t="n">
-        <v>2.934218797251596e-10</v>
+        <v>0.8299795134383283</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Beedi_No</t>
+          <t>Tobacco_Use_Former</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>32.6689849648201</v>
+        <v>0.7045982212275302</v>
       </c>
       <c r="C76" t="n">
-        <v>1.092669143339376e-08</v>
+        <v>0.4012429253446286</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Beedi_Yes</t>
+          <t>Tobacco_Use_Never</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>32.6689849648201</v>
+        <v>39.71791305958317</v>
       </c>
       <c r="C77" t="n">
-        <v>1.092669143339376e-08</v>
+        <v>2.934218797251596e-10</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1826,14 +1826,14 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Cigarette_No</t>
+          <t>Beedi_No</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>5.059024283306032</v>
+        <v>32.6689849648201</v>
       </c>
       <c r="C78" t="n">
-        <v>0.02449802660579986</v>
+        <v>1.092669143339376e-08</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1844,14 +1844,14 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Cigarette_Yes</t>
+          <t>Beedi_Yes</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>5.059024283306032</v>
+        <v>32.6689849648201</v>
       </c>
       <c r="C79" t="n">
-        <v>0.02449802660579986</v>
+        <v>1.092669143339376e-08</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1862,50 +1862,50 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Hookah_No</t>
+          <t>Cigarette_No</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>5.059024283306032</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>0.02449802660579986</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Hookah_Yes</t>
+          <t>Cigarette_Yes</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>5.059024283306032</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>0.02449802660579986</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Tobacco Chewing_No</t>
+          <t>Hookah_No</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.4368060456658732</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5086680833308559</v>
+        <v>1</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1916,14 +1916,14 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Tobacco Chewing_Yes</t>
+          <t>Hookah_Yes</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.4368060456658731</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0.5086680833308559</v>
+        <v>1</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1934,14 +1934,14 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Multiple _No</t>
+          <t>Tobacco Chewing_No</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2.831938922127909</v>
+        <v>0.4368060456658732</v>
       </c>
       <c r="C84" t="n">
-        <v>0.09240673341195649</v>
+        <v>0.5086680833308559</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1952,14 +1952,14 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Multiple _Yes</t>
+          <t>Tobacco Chewing_Yes</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2.831938922127909</v>
+        <v>0.4368060456658731</v>
       </c>
       <c r="C85" t="n">
-        <v>0.09240673341195649</v>
+        <v>0.5086680833308559</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1970,14 +1970,14 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Alcohol_Current-Every Day</t>
+          <t>Multiple _No</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.05214803758433154</v>
+        <v>2.831938922127909</v>
       </c>
       <c r="C86" t="n">
-        <v>0.819366812219267</v>
+        <v>0.09240673341195649</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -1988,14 +1988,14 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Alcohol_Current-Some Day</t>
+          <t>Multiple _Yes</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.8693922707555704</v>
+        <v>2.831938922127909</v>
       </c>
       <c r="C87" t="n">
-        <v>0.3511236087216386</v>
+        <v>0.09240673341195649</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2006,14 +2006,14 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Alcohol_Former</t>
+          <t>Alcohol_Current-Every Day</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1.831643139374611</v>
+        <v>0.05214803758433154</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1759335892948978</v>
+        <v>0.819366812219267</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2024,14 +2024,14 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Alcohol_Never</t>
+          <t>Alcohol_Current-Some Day</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2.645401232707719</v>
+        <v>0.8693922707555704</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1038499342624684</v>
+        <v>0.3511236087216386</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2042,14 +2042,14 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Gym_Supplements_No</t>
+          <t>Alcohol_Former</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.5381922819352501</v>
+        <v>1.831643139374611</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4631828704418429</v>
+        <v>0.1759335892948978</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2060,14 +2060,14 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Gym_Supplements_Yes</t>
+          <t>Alcohol_Never</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.5381922819352501</v>
+        <v>2.645401232707719</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4631828704418429</v>
+        <v>0.1038499342624684</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2078,14 +2078,14 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Cannabis_No</t>
+          <t>Gym_Supplements_No</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>0.5381922819352501</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0.4631828704418429</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2096,14 +2096,14 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Cannabis_Yes</t>
+          <t>Gym_Supplements_Yes</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>0.5381922819352501</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>0.4631828704418429</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Walking_Assisted</t>
+          <t>Cannabis_No</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -2132,7 +2132,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Walking_Unassisted</t>
+          <t>Cannabis_Yes</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -2150,7 +2150,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Walking_Wheelchair</t>
+          <t>Walking_Assisted</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -2168,50 +2168,50 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ASPRIN_No</t>
+          <t>Walking_Unassisted</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>8.749033671628233</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>0.00309766155277315</v>
+        <v>1</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ASPRIN_Yes</t>
+          <t>Walking_Wheelchair</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>8.749033671628233</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>0.00309766155277315</v>
+        <v>1</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>STATIN_No</t>
+          <t>ASPRIN_No</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>6.191520826578211</v>
+        <v>8.749033671628233</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0128363826795191</v>
+        <v>0.00309766155277315</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2222,14 +2222,14 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>STATIN_Yes</t>
+          <t>ASPRIN_Yes</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>6.191520826578211</v>
+        <v>8.749033671628233</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0128363826795191</v>
+        <v>0.00309766155277315</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2240,50 +2240,50 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>P2Y12 Inhibitors_No</t>
+          <t>STATIN_No</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>6.191520826578211</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>0.0128363826795191</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>P2Y12 Inhibitors_Yes</t>
+          <t>STATIN_Yes</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>6.191520826578211</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>0.0128363826795191</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Beta_blocker_No</t>
+          <t>P2Y12 Inhibitors_No</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.6275470576711923</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0.428256499328486</v>
+        <v>1</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2294,14 +2294,14 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Beta_blocker_Yes</t>
+          <t>P2Y12 Inhibitors_Yes</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.6275470576711925</v>
+        <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>0.4282564993284859</v>
+        <v>1</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2312,14 +2312,14 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>CalciumChannel_No</t>
+          <t>Beta_blocker_No</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.6801213337250626</v>
+        <v>0.6275470576711923</v>
       </c>
       <c r="C105" t="n">
-        <v>0.4095449464260512</v>
+        <v>0.428256499328486</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2330,14 +2330,14 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>CalciumChannel_Yes</t>
+          <t>Beta_blocker_Yes</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.6801213337250624</v>
+        <v>0.6275470576711925</v>
       </c>
       <c r="C106" t="n">
-        <v>0.4095449464260514</v>
+        <v>0.4282564993284859</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2348,14 +2348,14 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ACE ARB_No</t>
+          <t>CalciumChannel_No</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.9024072561746327</v>
+        <v>0.6801213337250626</v>
       </c>
       <c r="C107" t="n">
-        <v>0.3421370563648333</v>
+        <v>0.4095449464260512</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2366,14 +2366,14 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ACE ARB_Yes</t>
+          <t>CalciumChannel_Yes</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.9024072561746328</v>
+        <v>0.6801213337250624</v>
       </c>
       <c r="C108" t="n">
-        <v>0.3421370563648333</v>
+        <v>0.4095449464260514</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2384,14 +2384,14 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Aldosterone Blocking Antagonist_No</t>
+          <t>ACE ARB_No</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.2750203661656409</v>
+        <v>0.9024072561746327</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5999837771828801</v>
+        <v>0.3421370563648333</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2402,14 +2402,14 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Aldosterone Blocking Antagonist_Yes</t>
+          <t>ACE ARB_Yes</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.2750203661656409</v>
+        <v>0.9024072561746328</v>
       </c>
       <c r="C110" t="n">
-        <v>0.59998377718288</v>
+        <v>0.3421370563648333</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2420,14 +2420,14 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Anticoagulant_No</t>
+          <t>Aldosterone Blocking Antagonist_No</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.05225432383535633</v>
+        <v>0.2750203661656409</v>
       </c>
       <c r="C111" t="n">
-        <v>0.8191860066901225</v>
+        <v>0.5999837771828801</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2438,14 +2438,14 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Anticoagulant_Yes</t>
+          <t>Aldosterone Blocking Antagonist_Yes</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.05225432383535633</v>
+        <v>0.2750203661656409</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8191860066901225</v>
+        <v>0.59998377718288</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2456,14 +2456,14 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>INSULIN_No</t>
+          <t>Anticoagulant_No</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1.519484942763439</v>
+        <v>0.05225432383535633</v>
       </c>
       <c r="C113" t="n">
-        <v>0.2176974533989678</v>
+        <v>0.8191860066901225</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2474,14 +2474,14 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>INSULIN_Yes</t>
+          <t>Anticoagulant_Yes</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1.519484942763439</v>
+        <v>0.05225432383535633</v>
       </c>
       <c r="C114" t="n">
-        <v>0.2176974533989677</v>
+        <v>0.8191860066901225</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2492,14 +2492,14 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Oral Anti glycemics_GLP-1 Analogue</t>
+          <t>INSULIN_No</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1.519484942763439</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0.2176974533989678</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2510,14 +2510,14 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Oral Anti glycemics_Metformin</t>
+          <t>INSULIN_Yes</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.4639962200538769</v>
+        <v>1.519484942763439</v>
       </c>
       <c r="C116" t="n">
-        <v>0.4957622326742281</v>
+        <v>0.2176974533989677</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2528,89 +2528,89 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
+          <t>Oral Anti glycemics_GLP-1 Analogue</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Oral Anti glycemics_Metformin</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0.4639962200538769</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.4957622326742281</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
           <t>Oral Anti glycemics_Metformin 
 DPP-4 Inhibitors</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B119" t="n">
         <v>0</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C119" t="n">
         <v>1</v>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
         <is>
           <t>Oral Anti glycemics_Metformin 
 GLP-1 Analogue</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B120" t="n">
         <v>0.0001055757452908934</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C120" t="n">
         <v>0.9918018757213782</v>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
         <is>
           <t>Oral Anti glycemics_Metformin 
 Sulfonylurea</t>
         </is>
       </c>
-      <c r="B119" t="n">
+      <c r="B121" t="n">
         <v>0.04084643665933694</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C121" t="n">
         <v>0.8398346281939495</v>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Oral Anti glycemics_No</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>0.1226027305762442</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.7262285845378226</v>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Oral Anti glycemics_Sulfonylurea</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>0</v>
-      </c>
-      <c r="C121" t="n">
-        <v>1</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2621,14 +2621,14 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Homeopathy_No</t>
+          <t>Oral Anti glycemics_No</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.02521408139364543</v>
+        <v>0.1226027305762442</v>
       </c>
       <c r="C122" t="n">
-        <v>0.8738347809710847</v>
+        <v>0.7262285845378226</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2639,14 +2639,14 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Homeopathy_Yes</t>
+          <t>Oral Anti glycemics_Sulfonylurea</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.02521408139364543</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8738347809710847</v>
+        <v>1</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2657,14 +2657,14 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Ayurveda_No</t>
+          <t>Homeopathy_No</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.3063863390166747</v>
+        <v>0.02521408139364543</v>
       </c>
       <c r="C124" t="n">
-        <v>0.5799061844172273</v>
+        <v>0.8738347809710847</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2675,14 +2675,14 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Ayurveda_Yes</t>
+          <t>Homeopathy_Yes</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.3063863390166748</v>
+        <v>0.02521408139364543</v>
       </c>
       <c r="C125" t="n">
-        <v>0.5799061844172272</v>
+        <v>0.8738347809710847</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2693,14 +2693,14 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Symptoms_name_Chest Pain</t>
+          <t>Ayurveda_No</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.1853459217606729</v>
+        <v>0.3063863390166747</v>
       </c>
       <c r="C126" t="n">
-        <v>0.6668187293882488</v>
+        <v>0.5799061844172273</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2711,14 +2711,14 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Symptoms_name_Chest Pain, Vomiting</t>
+          <t>Ayurveda_Yes</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>0.3063863390166748</v>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>0.5799061844172272</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2729,14 +2729,14 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Symptoms_name_Chest Pain,Diaphoresis</t>
+          <t>Symptoms_name_Chest Pain</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.1167676829763057</v>
+        <v>0.1853459217606729</v>
       </c>
       <c r="C128" t="n">
-        <v>0.7325669884826673</v>
+        <v>0.6668187293882488</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2747,14 +2747,14 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Symptoms_name_Chest Pain,Shortness of Breath</t>
+          <t>Symptoms_name_Chest Pain, Vomiting</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>3.5372817387666</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>0.06000372123191546</v>
+        <v>1</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2765,14 +2765,14 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Symptoms_name_Chest Pain,Syncope</t>
+          <t>Symptoms_name_Chest Pain,Diaphoresis</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1.068041459871437</v>
+        <v>0.1167676829763057</v>
       </c>
       <c r="C130" t="n">
-        <v>0.3013882529985669</v>
+        <v>0.7325669884826673</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2783,14 +2783,14 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>PRECEDING_ACTIVITY_Exertional</t>
+          <t>Symptoms_name_Chest Pain,Shortness of Breath</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.01803775132172452</v>
+        <v>3.5372817387666</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8931616401514307</v>
+        <v>0.06000372123191546</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2801,14 +2801,14 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>PRECEDING_ACTIVITY_Non-Exertional</t>
+          <t>Symptoms_name_Chest Pain,Syncope</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>2.154390569856476</v>
+        <v>1.068041459871437</v>
       </c>
       <c r="C132" t="n">
-        <v>0.1421628402210106</v>
+        <v>0.3013882529985669</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2819,14 +2819,14 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>PRECEDING_ACTIVITY_Sleep</t>
+          <t>PRECEDING_ACTIVITY_Exertional</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>3.728922193970287</v>
+        <v>0.01803775132172452</v>
       </c>
       <c r="C133" t="n">
-        <v>0.05347789105588389</v>
+        <v>0.8931616401514307</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2837,50 +2837,50 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>CardiacStatus_Presentation_Cardiogenic Shock</t>
+          <t>PRECEDING_ACTIVITY_Non-Exertional</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>83.60603158368686</v>
+        <v>2.154390569856476</v>
       </c>
       <c r="C134" t="n">
-        <v>6.038853668883026e-20</v>
+        <v>0.1421628402210106</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>CardiacStatus_Presentation_Chest Pain</t>
+          <t>PRECEDING_ACTIVITY_Sleep</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>111.0517758963742</v>
+        <v>3.728922193970287</v>
       </c>
       <c r="C135" t="n">
-        <v>5.76453380835286e-26</v>
+        <v>0.05347789105588389</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>CardiacStatus_Presentation_Heart failure</t>
+          <t>CardiacStatus_Presentation_Cardiogenic Shock</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>36.55283327936943</v>
+        <v>83.60603158368686</v>
       </c>
       <c r="C136" t="n">
-        <v>1.485838397742807e-09</v>
+        <v>6.038853668883026e-20</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -2891,50 +2891,50 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Time since symptoms onset to first medical contact_1-3 days</t>
+          <t>CardiacStatus_Presentation_Chest Pain</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.06987740643685483</v>
+        <v>111.0517758963742</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7915153597612531</v>
+        <v>5.76453380835286e-26</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Time since symptoms onset to first medical contact_1-3 hours</t>
+          <t>CardiacStatus_Presentation_Heart failure</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>2.731142428830711</v>
+        <v>36.55283327936943</v>
       </c>
       <c r="C138" t="n">
-        <v>0.09840886805808208</v>
+        <v>1.485838397742807e-09</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Time since symptoms onset to first medical contact_12-24 hours</t>
+          <t>Time since symptoms onset to first medical contact_1-3 days</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.0016401225653789</v>
+        <v>0.06987740643685483</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9676957613236736</v>
+        <v>0.7915153597612531</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2945,14 +2945,14 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Time since symptoms onset to first medical contact_3-12 hours</t>
+          <t>Time since symptoms onset to first medical contact_1-3 hours</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>3.60022446735588</v>
+        <v>2.731142428830711</v>
       </c>
       <c r="C140" t="n">
-        <v>0.05777177011424963</v>
+        <v>0.09840886805808208</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -2963,14 +2963,14 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Time since symptoms onset to first medical contact_&lt;1 hour</t>
+          <t>Time since symptoms onset to first medical contact_12-24 hours</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1.097349688721952</v>
+        <v>0.0016401225653789</v>
       </c>
       <c r="C141" t="n">
-        <v>0.2948484733967152</v>
+        <v>0.9676957613236736</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -2981,32 +2981,32 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Mode_of_transport_Ambulance</t>
+          <t>Time since symptoms onset to first medical contact_3-12 hours</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>6.399041394238246</v>
+        <v>3.60022446735588</v>
       </c>
       <c r="C142" t="n">
-        <v>0.01141820003813444</v>
+        <v>0.05777177011424963</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Mode_of_transport_Public Transport</t>
+          <t>Time since symptoms onset to first medical contact_&lt;1 hour</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1.555076312629461</v>
+        <v>1.097349688721952</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2123876015123729</v>
+        <v>0.2948484733967152</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3017,32 +3017,32 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Mode_of_transport_Self</t>
+          <t>Mode_of_transport_Ambulance</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>3.008555701764112</v>
+        <v>6.399041394238246</v>
       </c>
       <c r="C144" t="n">
-        <v>0.082826061013771</v>
+        <v>0.01141820003813444</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Type of First Medical Contact_Non-PCI Center Clinic Hospital</t>
+          <t>Mode_of_transport_Public Transport</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.08839823529958726</v>
+        <v>1.555076312629461</v>
       </c>
       <c r="C145" t="n">
-        <v>0.7662234297399017</v>
+        <v>0.2123876015123729</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3053,14 +3053,14 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Type of First Medical Contact_PCI Capable Center</t>
+          <t>Mode_of_transport_Self</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.08839823529958726</v>
+        <v>3.008555701764112</v>
       </c>
       <c r="C146" t="n">
-        <v>0.7662234297399017</v>
+        <v>0.082826061013771</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3071,88 +3071,88 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
+          <t>Type of First Medical Contact_Non-PCI Center Clinic Hospital</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>0.08839823529958726</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.7662234297399017</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Type of First Medical Contact_PCI Capable Center</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0.08839823529958726</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.7662234297399017</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
           <t>Nature of Treatment_DAPT AND ANTICOAGULANT 
 STATINS</t>
         </is>
       </c>
-      <c r="B147" t="n">
+      <c r="B149" t="n">
         <v>2.360349649140649</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C149" t="n">
         <v>0.1244542916959563</v>
       </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
         <is>
           <t>Nature of Treatment_DAPT AND STATINS ONLY</t>
         </is>
       </c>
-      <c r="B148" t="n">
+      <c r="B150" t="n">
         <v>0.4492271237041855</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C150" t="n">
         <v>0.5027022096525564</v>
       </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
         <is>
           <t>Nature of Treatment_DAPT AND THROMBOLYSIS (Type of Thrombolytic Agent) 
 STATINS</t>
         </is>
       </c>
-      <c r="B149" t="n">
+      <c r="B151" t="n">
         <v>0.3712141776394673</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C151" t="n">
         <v>0.5423431800732004</v>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>MItype_on_ECG_Anterior Wall MI</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>0.03188344315498007</v>
-      </c>
-      <c r="C150" t="n">
-        <v>0.8582837117260116</v>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>MItype_on_ECG_Inferior Wall MI</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>0.05194331719276003</v>
-      </c>
-      <c r="C151" t="n">
-        <v>0.8197156130245369</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3163,14 +3163,14 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>MItype_on_ECG_Lateral Wall MI</t>
+          <t>MItype_on_ECG_Anterior Wall MI</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.0101333168749623</v>
+        <v>0.03188344315498007</v>
       </c>
       <c r="C152" t="n">
-        <v>0.9198168904122365</v>
+        <v>0.8582837117260116</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3181,14 +3181,14 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>MItype_on_ECG_Posterior Wall MI</t>
+          <t>MItype_on_ECG_Inferior Wall MI</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>0.05194331719276003</v>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>0.8197156130245369</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3199,14 +3199,14 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Beta blocker_NO</t>
+          <t>MItype_on_ECG_Lateral Wall MI</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>2.463767060284072</v>
+        <v>0.0101333168749623</v>
       </c>
       <c r="C154" t="n">
-        <v>0.1164990850972909</v>
+        <v>0.9198168904122365</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3217,86 +3217,86 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Beta blocker_No</t>
+          <t>MItype_on_ECG_Posterior Wall MI</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>6.31048113156667</v>
+        <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>0.01200262633495466</v>
+        <v>1</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Beta blocker_Yes</t>
+          <t>Beta blocker_NO</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>5.893999600874405</v>
+        <v>2.463767060284072</v>
       </c>
       <c r="C156" t="n">
-        <v>0.01519255706557678</v>
+        <v>0.1164990850972909</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Beta blocker_no</t>
+          <t>Beta blocker_No</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>2.226432253507486</v>
+        <v>6.31048113156667</v>
       </c>
       <c r="C157" t="n">
-        <v>0.1356667974046654</v>
+        <v>0.01200262633495466</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Beta blocker_yes</t>
+          <t>Beta blocker_Yes</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.02521408139364543</v>
+        <v>5.893999600874405</v>
       </c>
       <c r="C158" t="n">
-        <v>0.8738347809710847</v>
+        <v>0.01519255706557678</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>THROMBOLYSIS_No</t>
+          <t>Beta blocker_no</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.3712141776394673</v>
+        <v>2.226432253507486</v>
       </c>
       <c r="C159" t="n">
-        <v>0.5423431800732004</v>
+        <v>0.1356667974046654</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3307,14 +3307,14 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>THROMBOLYSIS_Yes</t>
+          <t>Beta blocker_yes</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.3712141776394673</v>
+        <v>0.02521408139364543</v>
       </c>
       <c r="C160" t="n">
-        <v>0.5423431800732004</v>
+        <v>0.8738347809710847</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3325,14 +3325,14 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>RWMA_No</t>
+          <t>THROMBOLYSIS_No</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.003580054935816004</v>
+        <v>0.3712141776394673</v>
       </c>
       <c r="C161" t="n">
-        <v>0.9522881962113109</v>
+        <v>0.5423431800732004</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3343,14 +3343,14 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>RWMA_Yes</t>
+          <t>THROMBOLYSIS_Yes</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.003580054935816004</v>
+        <v>0.3712141776394673</v>
       </c>
       <c r="C162" t="n">
-        <v>0.9522881962113109</v>
+        <v>0.5423431800732004</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3361,14 +3361,14 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Trop_T_No</t>
+          <t>RWMA_No</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.03869922904611142</v>
+        <v>0.003580054935816004</v>
       </c>
       <c r="C163" t="n">
-        <v>0.8440457220124487</v>
+        <v>0.9522881962113109</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3379,14 +3379,14 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Trop_T_Yes</t>
+          <t>RWMA_Yes</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.03869922904611143</v>
+        <v>0.003580054935816004</v>
       </c>
       <c r="C164" t="n">
-        <v>0.8440457220124487</v>
+        <v>0.9522881962113109</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3397,14 +3397,14 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Coronary_angiography_0</t>
+          <t>Trop_T_No</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.07725253268097482</v>
+        <v>0.03869922904611142</v>
       </c>
       <c r="C165" t="n">
-        <v>0.7810558088385039</v>
+        <v>0.8440457220124487</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3415,50 +3415,50 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Coronary_angiography_No</t>
+          <t>Trop_T_Yes</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>12.32598569965709</v>
+        <v>0.03869922904611143</v>
       </c>
       <c r="C166" t="n">
-        <v>0.0004466959941541908</v>
+        <v>0.8440457220124487</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Coronary_angiography_Yes</t>
+          <t>Coronary_angiography_0</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>19.6911159871256</v>
+        <v>0.07725253268097482</v>
       </c>
       <c r="C167" t="n">
-        <v>9.102354686328641e-06</v>
+        <v>0.7810558088385039</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Age 65-74/&gt;75_0</t>
+          <t>Coronary_angiography_No</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>8.064781868333643</v>
+        <v>12.32598569965709</v>
       </c>
       <c r="C168" t="n">
-        <v>0.004513390856668038</v>
+        <v>0.0004466959941541908</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3469,32 +3469,32 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Age 65-74/&gt;75_2</t>
+          <t>Coronary_angiography_Yes</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>2.730352095256582</v>
+        <v>19.6911159871256</v>
       </c>
       <c r="C169" t="n">
-        <v>0.09845757664341184</v>
+        <v>9.102354686328641e-06</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Age 65-74/&gt;75_3</t>
+          <t>Age 65-74/&gt;75_0</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>5.398447887478924</v>
+        <v>8.064781868333643</v>
       </c>
       <c r="C170" t="n">
-        <v>0.02015466754941115</v>
+        <v>0.004513390856668038</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3505,32 +3505,32 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Systolic BP&lt;100_0</t>
+          <t>Age 65-74/&gt;75_2</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>73.06738965449915</v>
+        <v>2.730352095256582</v>
       </c>
       <c r="C171" t="n">
-        <v>1.252977513975094e-17</v>
+        <v>0.09845757664341184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Systolic BP&lt;100_3</t>
+          <t>Age 65-74/&gt;75_3</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>73.06738965449915</v>
+        <v>5.398447887478924</v>
       </c>
       <c r="C172" t="n">
-        <v>1.252977513975094e-17</v>
+        <v>0.02015466754941115</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3541,14 +3541,14 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Heart Rate&gt;100_0</t>
+          <t>Systolic BP&lt;100_0</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>9.229285528014412</v>
+        <v>73.06738965449915</v>
       </c>
       <c r="C173" t="n">
-        <v>0.002381745678264953</v>
+        <v>1.252977513975094e-17</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3559,14 +3559,14 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Heart Rate&gt;100_2</t>
+          <t>Systolic BP&lt;100_3</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>9.22928552801441</v>
+        <v>73.06738965449915</v>
       </c>
       <c r="C174" t="n">
-        <v>0.002381745678264956</v>
+        <v>1.252977513975094e-17</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3577,14 +3577,14 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>KILLIP II-IV_0</t>
+          <t>Heart Rate&gt;100_0</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>63.73280259104505</v>
+        <v>9.229285528014412</v>
       </c>
       <c r="C175" t="n">
-        <v>1.424920570267962e-15</v>
+        <v>0.002381745678264953</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3595,14 +3595,14 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>KILLIP II-IV_2</t>
+          <t>Heart Rate&gt;100_2</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>63.73280259104504</v>
+        <v>9.22928552801441</v>
       </c>
       <c r="C176" t="n">
-        <v>1.424920570267967e-15</v>
+        <v>0.002381745678264956</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3613,86 +3613,86 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Anterior STE or LBBB_0</t>
+          <t>KILLIP II-IV_0</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.03188344315498007</v>
+        <v>63.73280259104505</v>
       </c>
       <c r="C177" t="n">
-        <v>0.8582837117260116</v>
+        <v>1.424920570267962e-15</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Anterior STE or LBBB_1</t>
+          <t>KILLIP II-IV_2</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.03188344315498007</v>
+        <v>63.73280259104504</v>
       </c>
       <c r="C178" t="n">
-        <v>0.8582837117260116</v>
+        <v>1.424920570267967e-15</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>H/O Diabetes, HTN or Angina_0</t>
+          <t>Anterior STE or LBBB_0</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>42.36740648436264</v>
+        <v>0.03188344315498007</v>
       </c>
       <c r="C179" t="n">
-        <v>7.564013375814875e-11</v>
+        <v>0.8582837117260116</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>H/O Diabetes, HTN or Angina_1</t>
+          <t>Anterior STE or LBBB_1</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>42.36740648436264</v>
+        <v>0.03188344315498007</v>
       </c>
       <c r="C180" t="n">
-        <v>7.564013375814875e-11</v>
+        <v>0.8582837117260116</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Weight &lt; 67 Kgs_0</t>
+          <t>H/O Diabetes, HTN or Angina_0</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>4.808093441574595</v>
+        <v>42.36740648436264</v>
       </c>
       <c r="C181" t="n">
-        <v>0.02832636798905187</v>
+        <v>7.564013375814875e-11</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3703,14 +3703,14 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Weight &lt; 67 Kgs_1</t>
+          <t>H/O Diabetes, HTN or Angina_1</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>4.808093441574595</v>
+        <v>42.36740648436264</v>
       </c>
       <c r="C182" t="n">
-        <v>0.02832636798905187</v>
+        <v>7.564013375814875e-11</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3721,14 +3721,14 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Time to Treatment &gt;4 Hours_0</t>
+          <t>Weight &lt; 67 Kgs_0</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>5.145881977272849</v>
+        <v>4.808093441574595</v>
       </c>
       <c r="C183" t="n">
-        <v>0.02330157078029437</v>
+        <v>0.02832636798905187</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3739,14 +3739,14 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Time to Treatment &gt;4 Hours_1</t>
+          <t>Weight &lt; 67 Kgs_1</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>5.145881977272849</v>
+        <v>4.808093441574595</v>
       </c>
       <c r="C184" t="n">
-        <v>0.02330157078029437</v>
+        <v>0.02832636798905187</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3757,14 +3757,14 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>EJECTION FRACTION(%)_20-25</t>
+          <t>Time to Treatment &gt;4 Hours_0</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>9.804109450121702</v>
+        <v>5.145881977272849</v>
       </c>
       <c r="C185" t="n">
-        <v>0.001741223352329961</v>
+        <v>0.02330157078029437</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3775,14 +3775,14 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>EJECTION FRACTION(%)_25-30</t>
+          <t>Time to Treatment &gt;4 Hours_1</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>5.352919109221496</v>
+        <v>5.145881977272849</v>
       </c>
       <c r="C186" t="n">
-        <v>0.02068760742541907</v>
+        <v>0.02330157078029437</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3793,14 +3793,14 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>EJECTION FRACTION(%)_30-35</t>
+          <t>EJECTION FRACTION(%)_20-25</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>10.91824076250443</v>
+        <v>9.804109450121702</v>
       </c>
       <c r="C187" t="n">
-        <v>0.0009522199169877955</v>
+        <v>0.001741223352329961</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3811,32 +3811,32 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>EJECTION FRACTION(%)_35-40</t>
+          <t>EJECTION FRACTION(%)_25-30</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1.951362020880967e-07</v>
+        <v>5.352919109221496</v>
       </c>
       <c r="C188" t="n">
-        <v>0.9996475407023874</v>
+        <v>0.02068760742541907</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>EJECTION FRACTION(%)_40-45</t>
+          <t>EJECTION FRACTION(%)_30-35</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>21.49086380269405</v>
+        <v>10.91824076250443</v>
       </c>
       <c r="C189" t="n">
-        <v>3.55518439048462e-06</v>
+        <v>0.0009522199169877955</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3847,14 +3847,14 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>EJECTION FRACTION(%)_&gt;50</t>
+          <t>EJECTION FRACTION(%)_35-40</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>3.644919121190584</v>
+        <v>1.951362020880967e-07</v>
       </c>
       <c r="C190" t="n">
-        <v>0.05624053540458172</v>
+        <v>0.9996475407023874</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3865,14 +3865,14 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>PRESENCE OF MITRAL REGURGITATION_Mild</t>
+          <t>EJECTION FRACTION(%)_40-45</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>105.3260635305694</v>
+        <v>21.49086380269405</v>
       </c>
       <c r="C191" t="n">
-        <v>1.036044187951704e-24</v>
+        <v>3.55518439048462e-06</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3883,32 +3883,32 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>PRESENCE OF MITRAL REGURGITATION_Moderate</t>
+          <t>EJECTION FRACTION(%)_&gt;50</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>79.09265373422389</v>
+        <v>3.644919121190584</v>
       </c>
       <c r="C192" t="n">
-        <v>5.926429268355162e-19</v>
+        <v>0.05624053540458172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>PRESENCE OF MITRAL REGURGITATION_No</t>
+          <t>PRESENCE OF MITRAL REGURGITATION_Mild</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>252.7441711591247</v>
+        <v>105.3260635305694</v>
       </c>
       <c r="C193" t="n">
-        <v>6.549353179715934e-57</v>
+        <v>1.036044187951704e-24</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3919,14 +3919,14 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>PRESENCE OF MITRAL REGURGITATION_Severe</t>
+          <t>PRESENCE OF MITRAL REGURGITATION_Moderate</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>69.6900939524662</v>
+        <v>79.09265373422389</v>
       </c>
       <c r="C194" t="n">
-        <v>6.939373827675528e-17</v>
+        <v>5.926429268355162e-19</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3937,14 +3937,14 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>LV THROMBUS_No</t>
+          <t>PRESENCE OF MITRAL REGURGITATION_No</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>38.27184073954347</v>
+        <v>252.7441711591247</v>
       </c>
       <c r="C195" t="n">
-        <v>6.154437157779015e-10</v>
+        <v>6.549353179715934e-57</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3955,14 +3955,14 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>LV THROMBUS_Yes</t>
+          <t>PRESENCE OF MITRAL REGURGITATION_Severe</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>38.27184073954347</v>
+        <v>69.6900939524662</v>
       </c>
       <c r="C196" t="n">
-        <v>6.154437157779015e-10</v>
+        <v>6.939373827675528e-17</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -3973,14 +3973,14 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>VSD_No</t>
+          <t>LV THROMBUS_No</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>49.29718448025415</v>
+        <v>38.27184073954347</v>
       </c>
       <c r="C197" t="n">
-        <v>2.199779925357968e-12</v>
+        <v>6.154437157779015e-10</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -3991,14 +3991,14 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>VSD_Yes</t>
+          <t>LV THROMBUS_Yes</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>49.29718448025415</v>
+        <v>38.27184073954347</v>
       </c>
       <c r="C198" t="n">
-        <v>2.199779925357968e-12</v>
+        <v>6.154437157779015e-10</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -4009,14 +4009,14 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>LV ANEURYSM_No</t>
+          <t>VSD_No</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>63.30150418350568</v>
+        <v>49.29718448025415</v>
       </c>
       <c r="C199" t="n">
-        <v>1.77368814539063e-15</v>
+        <v>2.199779925357968e-12</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -4027,14 +4027,14 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>LV ANEURYSM_Yes</t>
+          <t>VSD_Yes</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>63.30150418350568</v>
+        <v>49.29718448025415</v>
       </c>
       <c r="C200" t="n">
-        <v>1.773688145390625e-15</v>
+        <v>2.199779925357968e-12</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -4045,14 +4045,14 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ACUTE_MR_No</t>
+          <t>LV ANEURYSM_No</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>72.80180783603234</v>
+        <v>63.30150418350568</v>
       </c>
       <c r="C201" t="n">
-        <v>1.433454856537564e-17</v>
+        <v>1.77368814539063e-15</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -4063,14 +4063,14 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ACUTE_MR_Yes</t>
+          <t>LV ANEURYSM_Yes</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>72.80180783603235</v>
+        <v>63.30150418350568</v>
       </c>
       <c r="C202" t="n">
-        <v>1.433454856537554e-17</v>
+        <v>1.773688145390625e-15</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -4081,50 +4081,50 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Time_since_symptom_onset_to_1st_ECG_1 HOUR</t>
+          <t>ACUTE_MR_No</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>1.097349688721952</v>
+        <v>72.80180783603234</v>
       </c>
       <c r="C203" t="n">
-        <v>0.2948484733967152</v>
+        <v>1.433454856537564e-17</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Time_since_symptom_onset_to_1st_ECG_10 HOURS</t>
+          <t>ACUTE_MR_Yes</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>1.01843728856882</v>
+        <v>72.80180783603235</v>
       </c>
       <c r="C204" t="n">
-        <v>0.3128899756733933</v>
+        <v>1.433454856537554e-17</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Time_since_symptom_onset_to_1st_ECG_11 HOURS</t>
+          <t>Time_since_symptom_onset_to_1st_ECG_1 HOUR</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0</v>
+        <v>1.097349688721952</v>
       </c>
       <c r="C205" t="n">
-        <v>1</v>
+        <v>0.2948484733967152</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -4135,14 +4135,14 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Time_since_symptom_onset_to_1st_ECG_12 HOURS</t>
+          <t>Time_since_symptom_onset_to_1st_ECG_10 HOURS</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.08903803311456947</v>
+        <v>1.01843728856882</v>
       </c>
       <c r="C206" t="n">
-        <v>0.7654036777683395</v>
+        <v>0.3128899756733933</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Time_since_symptom_onset_to_1st_ECG_13 HOURS</t>
+          <t>Time_since_symptom_onset_to_1st_ECG_11 HOURS</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -4171,14 +4171,14 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Time_since_symptom_onset_to_1st_ECG_14 HOURS</t>
+          <t>Time_since_symptom_onset_to_1st_ECG_12 HOURS</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.1042688950899602</v>
+        <v>0.08903803311456947</v>
       </c>
       <c r="C208" t="n">
-        <v>0.7467657165358786</v>
+        <v>0.7654036777683395</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Time_since_symptom_onset_to_1st_ECG_16 HOURS</t>
+          <t>Time_since_symptom_onset_to_1st_ECG_13 HOURS</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -4207,14 +4207,14 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Time_since_symptom_onset_to_1st_ECG_2 HOURS</t>
+          <t>Time_since_symptom_onset_to_1st_ECG_14 HOURS</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>2.731142428830711</v>
+        <v>0.1042688950899602</v>
       </c>
       <c r="C210" t="n">
-        <v>0.09840886805808208</v>
+        <v>0.7467657165358786</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -4225,32 +4225,32 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Time_since_symptom_onset_to_1st_ECG_24 HOURS</t>
+          <t>Time_since_symptom_onset_to_1st_ECG_16 HOURS</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>5.904344514158367</v>
+        <v>0</v>
       </c>
       <c r="C211" t="n">
-        <v>0.01510358510871346</v>
+        <v>1</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Time_since_symptom_onset_to_1st_ECG_26 HOURS</t>
+          <t>Time_since_symptom_onset_to_1st_ECG_2 HOURS</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0</v>
+        <v>2.731142428830711</v>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>0.09840886805808208</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -4261,32 +4261,32 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Time_since_symptom_onset_to_1st_ECG_27 HOURS</t>
+          <t>Time_since_symptom_onset_to_1st_ECG_24 HOURS</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>5.904344514158367</v>
       </c>
       <c r="C213" t="n">
-        <v>1</v>
+        <v>0.01510358510871346</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Time_since_symptom_onset_to_1st_ECG_3 HOURS</t>
+          <t>Time_since_symptom_onset_to_1st_ECG_26 HOURS</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>2.661685754921578</v>
+        <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>0.102791741107073</v>
+        <v>1</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -4297,14 +4297,14 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Time_since_symptom_onset_to_1st_ECG_30 HOURS</t>
+          <t>Time_since_symptom_onset_to_1st_ECG_27 HOURS</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.00254556723612612</v>
+        <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>0.9597609124031612</v>
+        <v>1</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -4315,14 +4315,14 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Time_since_symptom_onset_to_1st_ECG_4 HOURS</t>
+          <t>Time_since_symptom_onset_to_1st_ECG_3 HOURS</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.3051277359383845</v>
+        <v>2.661685754921578</v>
       </c>
       <c r="C216" t="n">
-        <v>0.5806855058341196</v>
+        <v>0.102791741107073</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -4333,14 +4333,14 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Time_since_symptom_onset_to_1st_ECG_48 HOURS</t>
+          <t>Time_since_symptom_onset_to_1st_ECG_30 HOURS</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.5770330537378033</v>
+        <v>0.00254556723612612</v>
       </c>
       <c r="C217" t="n">
-        <v>0.4474776246385914</v>
+        <v>0.9597609124031612</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -4351,14 +4351,14 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Time_since_symptom_onset_to_1st_ECG_5 HOURS</t>
+          <t>Time_since_symptom_onset_to_1st_ECG_4 HOURS</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.1417327483367787</v>
+        <v>0.3051277359383845</v>
       </c>
       <c r="C218" t="n">
-        <v>0.7065644664579249</v>
+        <v>0.5806855058341196</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -4369,14 +4369,14 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Time_since_symptom_onset_to_1st_ECG_6 HOURS</t>
+          <t>Time_since_symptom_onset_to_1st_ECG_48 HOURS</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.002402224542485473</v>
+        <v>0.5770330537378033</v>
       </c>
       <c r="C219" t="n">
-        <v>0.9609093393430677</v>
+        <v>0.4474776246385914</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -4387,14 +4387,14 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Time_since_symptom_onset_to_1st_ECG_7 HOURS</t>
+          <t>Time_since_symptom_onset_to_1st_ECG_5 HOURS</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.09885906528657637</v>
+        <v>0.1417327483367787</v>
       </c>
       <c r="C220" t="n">
-        <v>0.7532031200028404</v>
+        <v>0.7065644664579249</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -4405,14 +4405,14 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Time_since_symptom_onset_to_1st_ECG_72 HOURS</t>
+          <t>Time_since_symptom_onset_to_1st_ECG_6 HOURS</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.3063863390166748</v>
+        <v>0.002402224542485473</v>
       </c>
       <c r="C221" t="n">
-        <v>0.5799061844172272</v>
+        <v>0.9609093393430677</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -4423,14 +4423,14 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Time_since_symptom_onset_to_1st_ECG_8 HOURS</t>
+          <t>Time_since_symptom_onset_to_1st_ECG_7 HOURS</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>1.909767755511042</v>
+        <v>0.09885906528657637</v>
       </c>
       <c r="C222" t="n">
-        <v>0.1669890590326304</v>
+        <v>0.7532031200028404</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -4441,16 +4441,52 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
+          <t>Time_since_symptom_onset_to_1st_ECG_72 HOURS</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>0.3063863390166748</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0.5799061844172272</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Time_since_symptom_onset_to_1st_ECG_8 HOURS</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>1.909767755511042</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0.1669890590326304</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
           <t>Time_since_symptom_onset_to_1st_ECG_9 HOURS</t>
         </is>
       </c>
-      <c r="B223" t="n">
+      <c r="B225" t="n">
         <v>1.107163093150171</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C225" t="n">
         <v>0.2926994615078715</v>
       </c>
-      <c r="D223" t="inlineStr">
+      <c r="D225" t="inlineStr">
         <is>
           <t>X</t>
         </is>

--- a/feature_select/feature_tests.xlsx
+++ b/feature_select/feature_tests.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -692,14 +692,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CardiacStatus_Presentation_Cardiogenic Shock</t>
+          <t>EJECTION FRACTION (&gt;35)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>94.58585949385602</v>
+        <v>32.28693706428769</v>
       </c>
       <c r="C15" t="n">
-        <v>2.346888522926789e-22</v>
+        <v>1.330044978589827e-08</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -710,14 +710,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CardiacStatus_Presentation_Heart failure</t>
+          <t>CardiacStatus_Presentation_Cardiogenic Shock</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.09812703961976</v>
+        <v>94.58585949385602</v>
       </c>
       <c r="C16" t="n">
-        <v>5.206207060064457e-11</v>
+        <v>2.346888522926789e-22</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -728,108 +728,18 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EJECTION FRACTION(%)_20-25</t>
+          <t>CardiacStatus_Presentation_Heart failure</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11.77711986583769</v>
+        <v>43.09812703961976</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0005996318765579052</v>
+        <v>5.206207060064457e-11</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>EJECTION FRACTION(%)_25-30</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>5.604615565760038</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.01791322489577423</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>EJECTION FRACTION(%)_30-35</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>13.37940694056971</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0002544021593265626</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>EJECTION FRACTION(%)_35-40</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.0432765670985217</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.8352053813589637</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>EJECTION FRACTION(%)_40-45</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>24.11916108369856</v>
-      </c>
-      <c r="C21" t="n">
-        <v>9.055475558936832e-07</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>EJECTION FRACTION(%)_&gt;50</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>3.794816104773644</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.05141152028403737</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>X</t>
         </is>
       </c>
     </row>
